--- a/card db.xlsx
+++ b/card db.xlsx
@@ -14,7 +14,7 @@
     <sheet sheetId="9" name="Token" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="NamedRange1">Location!$A$2:$J$2</definedName>
+    <definedName name="NamedRange1">Location!$A$2:$M$2</definedName>
     <definedName name="Card_Info">Catalyst!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="784">
   <si>
     <t>This is the Key for reading card abilities:</t>
   </si>
@@ -78,13 +78,13 @@
     <t>AP</t>
   </si>
   <si>
-    <t>Ability 1</t>
-  </si>
-  <si>
-    <t>Ability 2</t>
-  </si>
-  <si>
-    <t>Ability 3</t>
+    <t>Ability1</t>
+  </si>
+  <si>
+    <t>Ability2</t>
+  </si>
+  <si>
+    <t>Ability3</t>
   </si>
   <si>
     <t>Adon</t>
@@ -99,7 +99,7 @@
     <t>Human</t>
   </si>
   <si>
-    <t>Gains 6 stats per level</t>
+    <t>Human Nature: Gains 6 stats per level</t>
   </si>
   <si>
     <t>Nihlus</t>
@@ -108,6 +108,9 @@
     <t>Varim</t>
   </si>
   <si>
+    <t>Arrogant X</t>
+  </si>
+  <si>
     <t>gold from kill quests</t>
   </si>
   <si>
@@ -117,6 +120,9 @@
     <t>Kyrr</t>
   </si>
   <si>
+    <t>Corrosion X</t>
+  </si>
+  <si>
     <t>Start of combat choose one of three passives, Armor , Regen, or damage.</t>
   </si>
   <si>
@@ -126,6 +132,9 @@
     <t>Skarn</t>
   </si>
   <si>
+    <t>Pathfinder X</t>
+  </si>
+  <si>
     <t>Poisons are not consumed</t>
   </si>
   <si>
@@ -135,43 +144,46 @@
     <t>Udrinn</t>
   </si>
   <si>
+    <t>Undying X</t>
+  </si>
+  <si>
     <t>AP Damage shield?</t>
   </si>
   <si>
-    <t>Start at any costal city</t>
-  </si>
-  <si>
-    <t>Joham</t>
+    <t>Kgosi</t>
   </si>
   <si>
     <t>Minotaur</t>
   </si>
   <si>
+    <t>Reach X</t>
+  </si>
+  <si>
     <t>2 Row Charge</t>
   </si>
   <si>
-    <t>Kgosi means chief or king</t>
-  </si>
-  <si>
-    <t>Elise</t>
+    <t>Qiu</t>
   </si>
   <si>
     <t>Elf</t>
   </si>
   <si>
+    <t>Serenity X</t>
+  </si>
+  <si>
     <t>Call out - ASR1 - 2 AP: Elise and target unit must use an agressive ability against one another. If for some reason either unit is unable to do so, the other unit gains Critial 1.</t>
   </si>
   <si>
-    <t>Qiu means autumn</t>
-  </si>
-  <si>
     <t>Solaire</t>
   </si>
   <si>
     <t>Dragoon</t>
   </si>
   <si>
-    <t>Breath Weapon</t>
+    <t>Tough X</t>
+  </si>
+  <si>
+    <t>Breath of Fire : AWR2 - Deal your level in fire damage to target row. make a to hit roll for each unit.</t>
   </si>
   <si>
     <t>Jules</t>
@@ -180,6 +192,9 @@
     <t>Dwarf</t>
   </si>
   <si>
+    <t>Steady X</t>
+  </si>
+  <si>
     <t>Target Painting</t>
   </si>
   <si>
@@ -189,6 +204,9 @@
     <t>Quelar</t>
   </si>
   <si>
+    <t>Regen X</t>
+  </si>
+  <si>
     <t>Escavation rolls gain +/- 1 per level</t>
   </si>
   <si>
@@ -198,6 +216,9 @@
     <t>Gnome</t>
   </si>
   <si>
+    <t>Ellusive X</t>
+  </si>
+  <si>
     <t>Recruit and Bazaar lets you search for 1 level higher</t>
   </si>
   <si>
@@ -207,15 +228,6 @@
     <t>Tier</t>
   </si>
   <si>
-    <t>Ability1</t>
-  </si>
-  <si>
-    <t>Ability2</t>
-  </si>
-  <si>
-    <t>Ability3</t>
-  </si>
-  <si>
     <t>Ability4</t>
   </si>
   <si>
@@ -360,13 +372,34 @@
     <t>LVL</t>
   </si>
   <si>
+    <t>Ab2t</t>
+  </si>
+  <si>
+    <t>Ab2x</t>
+  </si>
+  <si>
+    <t>Ab2r</t>
+  </si>
+  <si>
+    <t>Ab2c</t>
+  </si>
+  <si>
     <t>Laila</t>
   </si>
   <si>
     <t>Arrogant 1</t>
   </si>
   <si>
-    <t>Shadow pin - ASR2 - 1 AP - Target unit cannot take a movement action until its next activation.</t>
+    <t>images\ranged.png</t>
+  </si>
+  <si>
+    <t>images\single.png</t>
+  </si>
+  <si>
+    <t>images\r2.png</t>
+  </si>
+  <si>
+    <t>                                         Shadow Pin - ASR2 - 1 AP - Target unit cannot take a movement action until its next activation.</t>
   </si>
   <si>
     <t>Abood</t>
@@ -393,6 +426,9 @@
     <t>Samer</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Unstopable - P - Any defensive actions made in response to this unit cost an additional 3 AP.</t>
   </si>
   <si>
@@ -402,6 +438,9 @@
     <t>Zaim</t>
   </si>
   <si>
+    <t>images\melee.png</t>
+  </si>
+  <si>
     <t>Charge - AS - 3 AP - If this Unit moved this turn Make a weapon attack. Ignore its cost.</t>
   </si>
   <si>
@@ -432,6 +471,9 @@
     <t>Corrosion 2</t>
   </si>
   <si>
+    <t>images\r1.png</t>
+  </si>
+  <si>
     <t>Spearhand - ASR1 - 3 AP - Deal 5 damage to target Unit, Ignore Soak.</t>
   </si>
   <si>
@@ -450,7 +492,7 @@
     <t>Metrius</t>
   </si>
   <si>
-    <t>Acid Cannon - ASR2 - 5 AP - Place 3 corrosion counters on any of target units equipment, if they do not have equipment for their body slot, deal 6 damage to them instead.</t>
+    <t>Acid Cannon - Place 3 corrosion counters on any of target units equipment, if they do not have equipment for their body slot, deal 6 damage to them instead.</t>
   </si>
   <si>
     <t>Stench Bomb - ASR2 - 3 AP - Deal 1 damage to target Unit, until the end of combat, any other unit sharing a row with it recieve -2 To all attack rolls.</t>
@@ -921,9 +963,6 @@
     <t>MR1</t>
   </si>
   <si>
-    <t>turn generic, use stats for a named.</t>
-  </si>
-  <si>
     <t>Chain Mail</t>
   </si>
   <si>
@@ -1218,10 +1257,10 @@
     <t>Gold</t>
   </si>
   <si>
-    <t>Starting Location</t>
-  </si>
-  <si>
-    <t>The Reanimator.</t>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>The Reanimator</t>
   </si>
   <si>
     <t>Black</t>
@@ -1467,19 +1506,26 @@
     <t>Defend</t>
   </si>
   <si>
-    <t>Region Markers</t>
-  </si>
-  <si>
-    <t>Location Type</t>
-  </si>
-  <si>
-    <t>Hazard Rating</t>
+    <t>RM0
+</t>
+  </si>
+  <si>
+    <t>RM1</t>
+  </si>
+  <si>
+    <t>RM2</t>
+  </si>
+  <si>
+    <t>RM3</t>
+  </si>
+  <si>
+    <t>HR</t>
   </si>
   <si>
     <t>Remote Sea side village</t>
   </si>
   <si>
-    <t>A</t>
+    <t>images\regiona.png</t>
   </si>
   <si>
     <t>Hire 200rin: Put into play a level 1 unit with a lvl 1 weapon.</t>
@@ -1491,7 +1537,7 @@
     <t>Ancient Arena</t>
   </si>
   <si>
-    <t>E</t>
+    <t>images\regione.png</t>
   </si>
   <si>
     <t>Escavate 9: Search your deck for a level 3 or lower Melee weapon or shield, attach it to a valid target.</t>
@@ -1503,7 +1549,7 @@
     <t>Arms Dealer</t>
   </si>
   <si>
-    <t>H</t>
+    <t>images\regionh.png</t>
   </si>
   <si>
     <t>Combat: Abilities gain +1 range.</t>
@@ -1515,7 +1561,7 @@
     <t>Bayou</t>
   </si>
   <si>
-    <t>DE</t>
+    <t>images\regiond.png</t>
   </si>
   <si>
     <t>Combat: Healing is half as effective at this location. Does not stack with any other reductions to healing.</t>
@@ -1527,7 +1573,10 @@
     <t>Beggar's Burrow</t>
   </si>
   <si>
-    <t>CDEF</t>
+    <t>images\regionc.png</t>
+  </si>
+  <si>
+    <t>images\regionf.png</t>
   </si>
   <si>
     <t>Crossroad</t>
@@ -1551,7 +1600,7 @@
     <t>Carnavor Cavern</t>
   </si>
   <si>
-    <t>EFGH</t>
+    <t>images\regiong.png</t>
   </si>
   <si>
     <t>Combat: Ranged and Magic attacks only roll 1d6 to hit.</t>
@@ -1563,9 +1612,6 @@
     <t>Cultist Complex (Dungeon)</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>Delve :  1: Start an encounter, the hazard player designates a unit as the purifier, This unit must start in the front row, if this unit makes it to the back row deal 10 damage to each unit. 2: Nothing happens 3: Start an encounter, Search you library for a lvl 6 or lower body equipment, attach it to a unit. 4: Standard Encounter. 5: Sacrifice a unit, search your library for a unit of the same race as the sacrificed unit, put it into play. 6: Start an encounter, add a Duval token to combat, Add 3 Cultists tokens to your party.</t>
   </si>
   <si>
@@ -1590,9 +1636,6 @@
     <t>Dragoon Caldera</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -1605,9 +1648,6 @@
     <t>Dust Bowl</t>
   </si>
   <si>
-    <t>EG</t>
-  </si>
-  <si>
     <t>Combat: Reduce all ability ranges by 2 to a minimum of 1.</t>
   </si>
   <si>
@@ -1623,7 +1663,7 @@
     <t>Elemental Gate</t>
   </si>
   <si>
-    <t>I</t>
+    <t>images\regioni.png</t>
   </si>
   <si>
     <t>Escavate 9: Search your deck for a level 2 or lower Off-hand, attach it to a valid target.</t>
@@ -1632,7 +1672,7 @@
     <t>Elf Main City</t>
   </si>
   <si>
-    <t>B</t>
+    <t>images\regionb.png</t>
   </si>
   <si>
     <t>Hire: Elves hired at this location are concidered 1 level less when paying Hire costs. You cannot hire Udrinn, or Varim from this location.</t>
@@ -1656,9 +1696,6 @@
     <t>Enchanted Forest</t>
   </si>
   <si>
-    <t>EF</t>
-  </si>
-  <si>
     <t>Combat: If a unit would take an action roll 2d6, on an 3 or under your opponent chooses a new target for the action with other units in this units party being valid targets for agressive abilities and units in the oppossing party being valid targets for friendly abilities.</t>
   </si>
   <si>
@@ -1674,9 +1711,6 @@
     <t>Frozen Wastes</t>
   </si>
   <si>
-    <t>FH</t>
-  </si>
-  <si>
     <t>Combat: Any action that calls for unit movement moves 1 additional row in the specified direction.</t>
   </si>
   <si>
@@ -1713,13 +1747,10 @@
     <t>Humid Jungle</t>
   </si>
   <si>
-    <t>BD</t>
-  </si>
-  <si>
     <t>Combat: Cloth + 1 ap, Leather +2 ap, Mail +3 ap, Plate +4 ap additional cost to ability use.</t>
   </si>
   <si>
-    <t>GHIJ</t>
+    <t>images\regionj.png</t>
   </si>
   <si>
     <t>Combat: At the begining of each combat round, place a pressure counter on this location. Once it has 5 tokens, remove them. Deal 20 damage to each Unit at this location.</t>
@@ -1728,9 +1759,6 @@
     <t>Kyrr Customs</t>
   </si>
   <si>
-    <t>CF</t>
-  </si>
-  <si>
     <t>special: sacrifice 2 lvls of items for safe passage.</t>
   </si>
   <si>
@@ -1749,9 +1777,6 @@
     <t>Lightning Fields</t>
   </si>
   <si>
-    <t>C(E)</t>
-  </si>
-  <si>
     <t>Combat: At the end of every combat round, deal 1d6 damage to the unit with the lowest INI, if tied deal 1d6 damage to each tied unit. </t>
   </si>
   <si>
@@ -1764,9 +1789,6 @@
     <t>Magnetic Caves</t>
   </si>
   <si>
-    <t>GH</t>
-  </si>
-  <si>
     <t>Combat: Units in Plate gain Cannot use movement abilities</t>
   </si>
   <si>
@@ -1776,9 +1798,6 @@
     <t>Mana Tree (sub)</t>
   </si>
   <si>
-    <t>B (sub)</t>
-  </si>
-  <si>
     <t>Native 4: Elves</t>
   </si>
   <si>
@@ -1791,9 +1810,6 @@
     <t>Mega merchant estate</t>
   </si>
   <si>
-    <t>J</t>
-  </si>
-  <si>
     <t>Special: Equipment played for hazard purposes do not count against the HR limit for encounters at this location.</t>
   </si>
   <si>
@@ -1842,9 +1858,6 @@
     <t>Special: When gaining a level at this location you may return 1 cultist to the token pile. Each cultists counts as a quest level when paying leveling costs.</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>Recruit 500rin: Search for a lvl 3 or under Adept or chaplain.</t>
   </si>
   <si>
@@ -1857,9 +1870,6 @@
     <t>Navy Yard</t>
   </si>
   <si>
-    <t>DG</t>
-  </si>
-  <si>
     <t>Hire: Marksmen and Soldiers are considered 1 level lower for hiring purposes. Kyrr and Udrinn May not be Hired here</t>
   </si>
   <si>
@@ -1887,9 +1897,6 @@
     <t>Port Stillmoon</t>
   </si>
   <si>
-    <t>AD</t>
-  </si>
-  <si>
     <t>Bazar 400g: Search for 3 item levels of consumables and put them into play</t>
   </si>
   <si>
@@ -1905,9 +1912,6 @@
     <t>Purloin Pass</t>
   </si>
   <si>
-    <t>ABCD</t>
-  </si>
-  <si>
     <t>Combat: All rogue units gain: layway - B - 1 AP - This unit gains stealth</t>
   </si>
   <si>
@@ -1932,18 +1936,12 @@
     <t>Science Facility</t>
   </si>
   <si>
-    <t>BE</t>
-  </si>
-  <si>
     <t>special: sacrifice 5 levels of consumbles, search for a single item lvl 4 or lower.</t>
   </si>
   <si>
     <t>Sinkhole</t>
   </si>
   <si>
-    <t>AC</t>
-  </si>
-  <si>
     <t>Combat: At the start of each combat round roll 1d6 the following row skips all unit activations for this combat round. 1-2 Front 3-4 Mid 5-6 back</t>
   </si>
   <si>
@@ -1977,9 +1975,6 @@
     <t>Stampeding Plains</t>
   </si>
   <si>
-    <t>AB</t>
-  </si>
-  <si>
     <t>Combat: at the begining of each combat round roll 1d6, on a 6 deal each unit at this location 1 damage per unit at this location.</t>
   </si>
   <si>
@@ -1995,9 +1990,6 @@
     <t>Taiga</t>
   </si>
   <si>
-    <t>FG</t>
-  </si>
-  <si>
     <t>Combat: Each time the same unit is attacked within succession add 1 damage to the attack results. This is cumulative.</t>
   </si>
   <si>
@@ -2025,9 +2017,6 @@
     <t>The Null </t>
   </si>
   <si>
-    <t>HI</t>
-  </si>
-  <si>
     <t>Combat: At the start of a units activation, if they are the only unit in their row they take 8 damage.</t>
   </si>
   <si>
@@ -2037,9 +2026,6 @@
     <t>The Wild</t>
   </si>
   <si>
-    <t>IJ</t>
-  </si>
-  <si>
     <t>Combat: At the start of combat, The hazard player selects a unit you controll. For the remainder of this combat follow catalyst death rules if that unit would perish.</t>
   </si>
   <si>
@@ -2055,9 +2041,6 @@
     <t>Tribal Human Village</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>Recruit 300rin: Search your library for a Human Unit level 3 or less. Add them to your party</t>
   </si>
   <si>
@@ -2091,18 +2074,12 @@
     <t>Water Fall</t>
   </si>
   <si>
-    <t>BC</t>
-  </si>
-  <si>
     <t>Combat:  During each units activation they may choose to spend 1 AP. If they dont pay, move them back 1 rank. It costs 4 AP to take a standard move action at this location.</t>
   </si>
   <si>
     <t>Wild Game Forest</t>
   </si>
   <si>
-    <t>CD</t>
-  </si>
-  <si>
     <t>Combat: You may use a Wild Boar Token Unit at this location for encounter purposes. Upon Defeat search your library for a lvl 2 or less food Item. </t>
   </si>
   <si>
@@ -2116,9 +2093,6 @@
   </si>
   <si>
     <t>Far from starting cities (no starting city in zone)</t>
-  </si>
-  <si>
-    <t>Completion Effect</t>
   </si>
   <si>
     <t>VP</t>
@@ -2735,16 +2709,19 @@
       <c t="s" r="H3">
         <v>28</v>
       </c>
+      <c t="s" r="I3">
+        <v>29</v>
+      </c>
     </row>
     <row r="4">
       <c t="s" r="A4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="B4">
         <v>22</v>
       </c>
       <c t="s" r="D4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -2756,18 +2733,21 @@
         <v>2</v>
       </c>
       <c t="s" r="H4">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c t="s" r="I4">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c t="s" r="A5">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c t="s" r="B5">
         <v>22</v>
       </c>
       <c t="s" r="D5">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2779,18 +2759,21 @@
         <v>4</v>
       </c>
       <c t="s" r="H5">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c t="s" r="I5">
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c t="s" r="A6">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c t="s" r="B6">
         <v>22</v>
       </c>
       <c t="s" r="D6">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -2802,21 +2785,21 @@
         <v>6</v>
       </c>
       <c t="s" r="H6">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c t="s" r="I6">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c t="s" r="A7">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c t="s" r="B7">
         <v>22</v>
       </c>
       <c t="s" r="D7">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -2828,21 +2811,21 @@
         <v>0</v>
       </c>
       <c t="s" r="H7">
-        <v>41</v>
-      </c>
-      <c t="s" r="J7">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c t="s" r="I7">
+        <v>45</v>
       </c>
     </row>
     <row r="8">
       <c t="s" r="A8">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c t="s" r="B8">
         <v>22</v>
       </c>
       <c t="s" r="D8">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -2854,21 +2837,21 @@
         <v>4</v>
       </c>
       <c t="s" r="H8">
-        <v>45</v>
-      </c>
-      <c t="s" r="J8">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c t="s" r="I8">
+        <v>49</v>
       </c>
     </row>
     <row r="9">
       <c t="s" r="A9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c t="s" r="B9">
         <v>22</v>
       </c>
       <c t="s" r="D9">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -2880,18 +2863,21 @@
         <v>4</v>
       </c>
       <c t="s" r="H9">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c t="s" r="I9">
+        <v>53</v>
       </c>
     </row>
     <row r="10">
       <c t="s" r="A10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c t="s" r="B10">
         <v>22</v>
       </c>
       <c t="s" r="D10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -2903,18 +2889,21 @@
         <v>2</v>
       </c>
       <c t="s" r="H10">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c t="s" r="I10">
+        <v>57</v>
       </c>
     </row>
     <row r="11">
       <c t="s" r="A11">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c t="s" r="B11">
         <v>22</v>
       </c>
       <c t="s" r="D11">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -2926,18 +2915,21 @@
         <v>2</v>
       </c>
       <c t="s" r="H11">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c t="s" r="I11">
+        <v>61</v>
       </c>
     </row>
     <row r="12">
       <c t="s" r="A12">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c t="s" r="B12">
         <v>22</v>
       </c>
       <c t="s" r="D12">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2949,7 +2941,10 @@
         <v>8</v>
       </c>
       <c t="s" r="H12">
-        <v>58</v>
+        <v>64</v>
+      </c>
+      <c t="s" r="I12">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2984,10 +2979,10 @@
         <v>13</v>
       </c>
       <c t="s" s="8" r="D1">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c t="s" s="8" r="E1">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c t="s" s="8" r="F1">
         <v>15</v>
@@ -2999,33 +2994,33 @@
         <v>17</v>
       </c>
       <c t="s" s="8" r="I1">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c t="s" s="8" r="J1">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c t="s" s="8" r="K1">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c t="s" s="8" r="L1">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c t="s" s="8" r="M1">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c t="s" s="8" r="N1">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
       <c t="s" r="A2">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c t="s" r="B2">
         <v>22</v>
       </c>
       <c t="s" r="D2">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3040,33 +3035,33 @@
         <v>1</v>
       </c>
       <c t="s" r="I2">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c t="s" r="J2">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c t="s" r="K2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c t="s" r="L2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c t="s" r="M2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c t="s" r="N2">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c t="s" r="A3">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c t="s" r="B3">
         <v>22</v>
       </c>
       <c t="s" r="D3">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3081,33 +3076,33 @@
         <v>2</v>
       </c>
       <c t="s" r="I3">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c t="s" r="J3">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c t="s" r="K3">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c t="s" r="L3">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c t="s" r="M3">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c t="s" r="N3">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c t="s" r="A4">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c t="s" r="B4">
         <v>22</v>
       </c>
       <c t="s" r="D4">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -3122,33 +3117,33 @@
         <v>3</v>
       </c>
       <c t="s" r="I4">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c t="s" r="J4">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c t="s" r="K4">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c t="s" r="L4">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c t="s" r="M4">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c t="s" r="N4">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
       <c t="s" r="A5">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c t="s" r="B5">
         <v>22</v>
       </c>
       <c t="s" r="D5">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3163,33 +3158,33 @@
         <v>1</v>
       </c>
       <c t="s" r="I5">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c t="s" r="J5">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c t="s" r="K5">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c t="s" r="L5">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c t="s" r="M5">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c t="s" r="N5">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6">
       <c t="s" r="A6">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c t="s" r="B6">
         <v>22</v>
       </c>
       <c t="s" r="D6">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -3204,33 +3199,33 @@
         <v>1</v>
       </c>
       <c t="s" r="I6">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c t="s" r="J6">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c t="s" r="K6">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c t="s" r="L6">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c t="s" r="M6">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c t="s" r="N6">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7">
       <c t="s" r="A7">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c t="s" r="B7">
         <v>22</v>
       </c>
       <c t="s" r="D7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3245,22 +3240,22 @@
         <v>2</v>
       </c>
       <c t="s" r="I7">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c t="s" r="J7">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c t="s" s="5" r="K7">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c t="s" r="L7">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c t="s" r="M7">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c t="s" r="N7">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3300,10 +3295,10 @@
         <v>14</v>
       </c>
       <c t="s" s="7" r="E1">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c t="s" s="7" r="F1">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c t="s" s="7" r="G1">
         <v>15</v>
@@ -3315,18 +3310,30 @@
         <v>17</v>
       </c>
       <c t="s" s="7" r="J1">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c t="s" s="7" r="K1">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c t="s" s="7" r="L1">
-        <v>63</v>
+        <v>117</v>
+      </c>
+      <c t="s" s="7" r="M1">
+        <v>118</v>
+      </c>
+      <c t="s" s="7" r="N1">
+        <v>119</v>
+      </c>
+      <c t="s" s="7" r="O1">
+        <v>19</v>
+      </c>
+      <c t="s" s="7" r="P1">
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="4" r="A2">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c t="s" s="4" r="B2">
         <v>22</v>
@@ -3336,7 +3343,7 @@
         <v>27</v>
       </c>
       <c t="s" s="4" r="E2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c s="4" r="F2">
         <v>1</v>
@@ -3351,16 +3358,28 @@
         <v>3</v>
       </c>
       <c t="s" s="4" r="J2">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c t="s" s="4" r="K2">
-        <v>114</v>
-      </c>
-      <c s="4" r="L2"/>
+        <v>122</v>
+      </c>
+      <c t="s" s="4" r="L2">
+        <v>123</v>
+      </c>
+      <c t="s" s="4" r="M2">
+        <v>124</v>
+      </c>
+      <c s="4" r="N2">
+        <v>1</v>
+      </c>
+      <c t="s" s="4" r="O2">
+        <v>125</v>
+      </c>
+      <c s="4" r="P2"/>
     </row>
     <row r="3">
       <c t="s" s="1" r="A3">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c t="s" s="1" r="B3">
         <v>22</v>
@@ -3370,7 +3389,7 @@
         <v>27</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c s="1" r="F3">
         <v>3</v>
@@ -3385,16 +3404,21 @@
         <v>4</v>
       </c>
       <c t="s" s="1" r="J3">
-        <v>113</v>
-      </c>
-      <c t="s" s="1" r="K3">
-        <v>116</v>
-      </c>
-      <c s="1" r="L3"/>
+        <v>121</v>
+      </c>
+      <c s="1" r="K3"/>
+      <c s="1" r="M3"/>
+      <c s="1" r="N3">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="O3">
+        <v>127</v>
+      </c>
+      <c s="1" r="P3"/>
     </row>
     <row r="4">
       <c t="s" s="4" r="A4">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c t="s" s="4" r="B4">
         <v>22</v>
@@ -3404,7 +3428,7 @@
         <v>27</v>
       </c>
       <c t="s" s="4" r="E4">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c s="4" r="F4">
         <v>2</v>
@@ -3419,16 +3443,26 @@
         <v>4</v>
       </c>
       <c t="s" s="4" r="J4">
-        <v>113</v>
-      </c>
-      <c t="s" s="4" r="K4">
-        <v>118</v>
+        <v>121</v>
+      </c>
+      <c t="s" r="K4">
+        <v>122</v>
       </c>
       <c s="4" r="L4"/>
+      <c t="s" s="4" r="M4">
+        <v>124</v>
+      </c>
+      <c s="4" r="N4">
+        <v>3</v>
+      </c>
+      <c t="s" s="4" r="O4">
+        <v>129</v>
+      </c>
+      <c s="4" r="P4"/>
     </row>
     <row r="5">
       <c t="s" s="4" r="A5">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c t="s" s="4" r="B5">
         <v>22</v>
@@ -3438,7 +3472,7 @@
         <v>27</v>
       </c>
       <c t="s" s="4" r="E5">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c s="4" r="F5">
         <v>5</v>
@@ -3453,16 +3487,22 @@
         <v>3</v>
       </c>
       <c t="s" s="4" r="J5">
-        <v>120</v>
-      </c>
-      <c t="s" s="4" r="K5">
-        <v>121</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c s="4" r="K5"/>
       <c s="4" r="L5"/>
+      <c s="4" r="M5"/>
+      <c s="4" r="N5">
+        <v>3</v>
+      </c>
+      <c t="s" s="4" r="O5">
+        <v>132</v>
+      </c>
+      <c s="4" r="P5"/>
     </row>
     <row r="6">
       <c t="s" s="4" r="A6">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c t="s" s="4" r="B6">
         <v>22</v>
@@ -3472,7 +3512,7 @@
         <v>27</v>
       </c>
       <c t="s" s="4" r="E6">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c s="4" r="F6">
         <v>6</v>
@@ -3487,18 +3527,24 @@
         <v>4</v>
       </c>
       <c t="s" s="4" r="J6">
-        <v>120</v>
-      </c>
-      <c t="s" s="4" r="K6">
-        <v>123</v>
-      </c>
-      <c t="s" s="4" r="L6">
-        <v>124</v>
+        <v>131</v>
+      </c>
+      <c s="4" r="K6"/>
+      <c s="4" r="L6"/>
+      <c s="4" r="M6"/>
+      <c t="s" s="4" r="N6">
+        <v>134</v>
+      </c>
+      <c t="s" s="4" r="O6">
+        <v>135</v>
+      </c>
+      <c t="s" s="4" r="P6">
+        <v>136</v>
       </c>
     </row>
     <row r="7">
       <c t="s" s="4" r="A7">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c t="s" s="4" r="B7">
         <v>22</v>
@@ -3508,7 +3554,7 @@
         <v>27</v>
       </c>
       <c t="s" s="4" r="E7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c s="4" r="F7">
         <v>4</v>
@@ -3523,26 +3569,34 @@
         <v>3</v>
       </c>
       <c t="s" s="4" r="J7">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c t="s" s="4" r="K7">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c s="4" r="L7"/>
+      <c s="4" r="M7"/>
+      <c s="4" r="N7">
+        <v>3</v>
+      </c>
+      <c t="s" s="4" r="O7">
+        <v>139</v>
+      </c>
+      <c s="4" r="P7"/>
     </row>
     <row r="8">
       <c t="s" s="4" r="A8">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c t="s" s="4" r="B8">
         <v>22</v>
       </c>
       <c s="4" r="C8"/>
       <c t="s" s="4" r="D8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" s="4" r="E8">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c s="4" r="F8">
         <v>3</v>
@@ -3557,26 +3611,36 @@
         <v>8</v>
       </c>
       <c t="s" s="4" r="J8">
-        <v>128</v>
-      </c>
-      <c t="s" s="4" r="K8">
-        <v>129</v>
+        <v>141</v>
+      </c>
+      <c t="s" r="K8">
+        <v>122</v>
       </c>
       <c s="4" r="L8"/>
+      <c t="s" s="4" r="M8">
+        <v>124</v>
+      </c>
+      <c s="4" r="N8">
+        <v>4</v>
+      </c>
+      <c t="s" s="4" r="O8">
+        <v>142</v>
+      </c>
+      <c s="4" r="P8"/>
     </row>
     <row r="9">
       <c t="s" s="4" r="A9">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c t="s" s="4" r="B9">
         <v>22</v>
       </c>
       <c s="4" r="C9"/>
       <c t="s" s="4" r="D9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" s="4" r="E9">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c s="4" r="F9">
         <v>2</v>
@@ -3591,26 +3655,32 @@
         <v>3</v>
       </c>
       <c t="s" s="4" r="J9">
-        <v>128</v>
-      </c>
-      <c t="s" s="4" r="K9">
-        <v>131</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c s="4" r="K9"/>
       <c s="4" r="L9"/>
+      <c s="4" r="M9"/>
+      <c t="s" s="4" r="N9">
+        <v>134</v>
+      </c>
+      <c t="s" s="4" r="O9">
+        <v>144</v>
+      </c>
+      <c s="4" r="P9"/>
     </row>
     <row r="10">
       <c t="s" s="4" r="A10">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c t="s" s="4" r="B10">
         <v>22</v>
       </c>
       <c s="4" r="C10"/>
       <c t="s" s="4" r="D10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" s="4" r="E10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c s="4" r="F10">
         <v>1</v>
@@ -3625,25 +3695,31 @@
         <v>2</v>
       </c>
       <c t="s" s="4" r="J10">
-        <v>128</v>
-      </c>
-      <c t="s" s="4" r="K10">
-        <v>133</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c s="4" r="K10"/>
       <c s="4" r="L10"/>
+      <c s="4" r="M10"/>
+      <c t="s" s="4" r="N10">
+        <v>134</v>
+      </c>
+      <c t="s" s="4" r="O10">
+        <v>146</v>
+      </c>
+      <c s="4" r="P10"/>
     </row>
     <row r="11">
       <c t="s" r="A11">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c t="s" r="B11">
         <v>22</v>
       </c>
       <c t="s" r="D11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="E11">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -3658,27 +3734,36 @@
         <v>7</v>
       </c>
       <c t="s" r="J11">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c t="s" r="K11">
-        <v>136</v>
-      </c>
-      <c t="s" r="L11">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c t="s" s="4" r="M11">
+        <v>149</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c t="s" r="O11">
+        <v>150</v>
+      </c>
+      <c t="s" r="P11">
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c t="s" r="A12">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c t="s" r="B12">
         <v>22</v>
       </c>
       <c t="s" r="D12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="E12">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -3693,27 +3778,33 @@
         <v>8</v>
       </c>
       <c t="s" r="J12">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c t="s" r="K12">
-        <v>139</v>
-      </c>
-      <c t="s" r="L12">
-        <v>140</v>
+        <v>122</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c t="s" r="O12">
+        <v>153</v>
+      </c>
+      <c t="s" r="P12">
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c t="s" r="A13">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c t="s" r="B13">
         <v>22</v>
       </c>
       <c t="s" r="D13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="E13">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -3728,27 +3819,36 @@
         <v>9</v>
       </c>
       <c t="s" r="J13">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c t="s" r="K13">
-        <v>142</v>
-      </c>
-      <c t="s" r="L13">
-        <v>143</v>
+        <v>122</v>
+      </c>
+      <c t="s" r="M13">
+        <v>124</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c t="s" r="O13">
+        <v>156</v>
+      </c>
+      <c t="s" r="P13">
+        <v>157</v>
       </c>
     </row>
     <row r="14">
       <c t="s" r="A14">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c t="s" r="B14">
         <v>22</v>
       </c>
       <c t="s" r="D14">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c t="s" r="E14">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -3763,24 +3863,33 @@
         <v>5</v>
       </c>
       <c t="s" r="J14">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c t="s" r="K14">
-        <v>146</v>
+        <v>138</v>
+      </c>
+      <c t="s" s="4" r="M14">
+        <v>149</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c t="s" r="O14">
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c t="s" r="A15">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c t="s" r="B15">
         <v>22</v>
       </c>
       <c t="s" r="D15">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c t="s" r="E15">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -3795,24 +3904,33 @@
         <v>12</v>
       </c>
       <c t="s" r="J15">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c t="s" r="K15">
-        <v>148</v>
+        <v>122</v>
+      </c>
+      <c t="s" s="4" r="M15">
+        <v>124</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c t="s" r="O15">
+        <v>162</v>
       </c>
     </row>
     <row r="16">
       <c t="s" r="A16">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c t="s" r="B16">
         <v>22</v>
       </c>
       <c t="s" r="D16">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c t="s" r="E16">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F16">
         <v>4</v>
@@ -3827,27 +3945,30 @@
         <v>11</v>
       </c>
       <c t="s" r="J16">
-        <v>145</v>
-      </c>
-      <c t="s" r="K16">
-        <v>150</v>
-      </c>
-      <c t="s" r="L16">
-        <v>151</v>
+        <v>159</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c t="s" r="O16">
+        <v>164</v>
+      </c>
+      <c t="s" r="P16">
+        <v>165</v>
       </c>
     </row>
     <row r="17">
       <c t="s" r="A17">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c t="s" r="B17">
         <v>22</v>
       </c>
       <c t="s" r="D17">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c t="s" r="E17">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -3862,24 +3983,33 @@
         <v>6</v>
       </c>
       <c t="s" r="J17">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c t="s" r="K17">
-        <v>153</v>
+        <v>122</v>
+      </c>
+      <c t="s" s="4" r="M17">
+        <v>124</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c t="s" r="O17">
+        <v>167</v>
       </c>
     </row>
     <row r="18">
       <c t="s" r="A18">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c t="s" r="B18">
         <v>22</v>
       </c>
       <c t="s" r="D18">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c t="s" r="E18">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F18">
         <v>6</v>
@@ -3894,27 +4024,33 @@
         <v>24</v>
       </c>
       <c t="s" r="J18">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c t="s" r="K18">
-        <v>156</v>
-      </c>
-      <c t="s" r="L18">
-        <v>157</v>
+        <v>122</v>
+      </c>
+      <c r="N18">
+        <v>15</v>
+      </c>
+      <c t="s" r="O18">
+        <v>170</v>
+      </c>
+      <c t="s" r="P18">
+        <v>171</v>
       </c>
     </row>
     <row r="19">
       <c t="s" r="A19">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c t="s" r="B19">
         <v>22</v>
       </c>
       <c t="s" r="D19">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c t="s" r="E19">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F19">
         <v>5</v>
@@ -3929,27 +4065,30 @@
         <v>9</v>
       </c>
       <c t="s" r="J19">
-        <v>155</v>
-      </c>
-      <c t="s" r="K19">
-        <v>159</v>
-      </c>
-      <c t="s" r="L19">
-        <v>160</v>
+        <v>169</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+      <c t="s" r="O19">
+        <v>173</v>
+      </c>
+      <c t="s" r="P19">
+        <v>174</v>
       </c>
     </row>
     <row r="20">
       <c t="s" r="A20">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c t="s" r="B20">
         <v>22</v>
       </c>
       <c t="s" r="D20">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c t="s" r="E20">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -3964,24 +4103,33 @@
         <v>3</v>
       </c>
       <c t="s" r="J20">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c t="s" r="K20">
-        <v>163</v>
+        <v>138</v>
+      </c>
+      <c t="s" s="4" r="M20">
+        <v>149</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c t="s" r="O20">
+        <v>177</v>
       </c>
     </row>
     <row r="21">
       <c t="s" r="A21">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c t="s" r="B21">
         <v>22</v>
       </c>
       <c t="s" r="D21">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c t="s" r="E21">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -3996,24 +4144,27 @@
         <v>6</v>
       </c>
       <c t="s" r="J21">
-        <v>162</v>
-      </c>
-      <c t="s" r="K21">
-        <v>165</v>
+        <v>176</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c t="s" r="O21">
+        <v>179</v>
       </c>
     </row>
     <row r="22">
       <c t="s" r="A22">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c t="s" r="B22">
         <v>22</v>
       </c>
       <c t="s" r="D22">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c t="s" r="E22">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F22">
         <v>4</v>
@@ -4028,24 +4179,33 @@
         <v>13</v>
       </c>
       <c t="s" r="J22">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c t="s" r="K22">
-        <v>168</v>
+        <v>122</v>
+      </c>
+      <c t="s" s="4" r="M22">
+        <v>124</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c t="s" r="O22">
+        <v>182</v>
       </c>
     </row>
     <row r="23">
       <c t="s" r="A23">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c t="s" r="B23">
         <v>22</v>
       </c>
       <c t="s" r="D23">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c t="s" r="E23">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -4060,24 +4220,27 @@
         <v>6</v>
       </c>
       <c t="s" r="J23">
-        <v>167</v>
-      </c>
-      <c t="s" r="K23">
-        <v>170</v>
+        <v>181</v>
+      </c>
+      <c t="s" r="N23">
+        <v>134</v>
+      </c>
+      <c t="s" r="O23">
+        <v>184</v>
       </c>
     </row>
     <row r="24">
       <c t="s" r="A24">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c t="s" r="B24">
         <v>22</v>
       </c>
       <c t="s" r="D24">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c t="s" r="E24">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F24">
         <v>6</v>
@@ -4092,27 +4255,30 @@
         <v>14</v>
       </c>
       <c t="s" r="J24">
-        <v>172</v>
-      </c>
-      <c t="s" r="K24">
-        <v>173</v>
-      </c>
-      <c t="s" r="L24">
-        <v>174</v>
+        <v>186</v>
+      </c>
+      <c r="N24">
+        <v>5</v>
+      </c>
+      <c t="s" r="O24">
+        <v>187</v>
+      </c>
+      <c t="s" r="P24">
+        <v>188</v>
       </c>
     </row>
     <row r="25">
       <c t="s" r="A25">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c t="s" r="B25">
         <v>22</v>
       </c>
       <c t="s" r="D25">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c t="s" r="E25">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -4127,28 +4293,31 @@
         <v>9</v>
       </c>
       <c t="s" r="J25">
-        <v>172</v>
-      </c>
-      <c t="s" r="K25">
-        <v>176</v>
-      </c>
-      <c t="s" r="L25">
-        <v>177</v>
+        <v>186</v>
+      </c>
+      <c r="N25">
+        <v>5</v>
+      </c>
+      <c t="s" r="O25">
+        <v>190</v>
+      </c>
+      <c t="s" r="P25">
+        <v>191</v>
       </c>
     </row>
     <row r="26">
       <c t="s" s="2" r="A26">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c t="s" s="2" r="B26">
         <v>22</v>
       </c>
       <c s="2" r="C26"/>
       <c t="s" s="2" r="D26">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c t="s" s="2" r="E26">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c s="2" r="F26">
         <v>1</v>
@@ -4163,25 +4332,35 @@
         <v>3</v>
       </c>
       <c t="s" s="2" r="J26">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c t="s" s="2" r="K26">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c s="2" r="L26"/>
+      <c t="s" s="4" r="M26">
+        <v>149</v>
+      </c>
+      <c s="2" r="N26">
+        <v>2</v>
+      </c>
+      <c t="s" s="2" r="O26">
+        <v>194</v>
+      </c>
+      <c s="2" r="P26"/>
     </row>
     <row r="27">
       <c t="s" r="A27">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c t="s" r="B27">
         <v>22</v>
       </c>
       <c t="s" r="D27">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c t="s" r="E27">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F27">
         <v>4</v>
@@ -4196,24 +4375,27 @@
         <v>6</v>
       </c>
       <c t="s" r="J27">
-        <v>179</v>
-      </c>
-      <c t="s" r="K27">
-        <v>182</v>
+        <v>193</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c t="s" r="O27">
+        <v>196</v>
       </c>
     </row>
     <row r="28">
       <c t="s" r="A28">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c t="s" r="B28">
         <v>22</v>
       </c>
       <c t="s" r="D28">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c t="s" r="E28">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -4228,24 +4410,33 @@
         <v>4</v>
       </c>
       <c t="s" r="J28">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c t="s" r="K28">
-        <v>184</v>
+        <v>138</v>
+      </c>
+      <c t="s" s="4" r="M28">
+        <v>149</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c t="s" r="O28">
+        <v>198</v>
       </c>
     </row>
     <row r="29">
       <c t="s" r="A29">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c t="s" r="B29">
         <v>22</v>
       </c>
       <c t="s" r="D29">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c t="s" r="E29">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F29">
         <v>3</v>
@@ -4260,24 +4451,33 @@
         <v>2</v>
       </c>
       <c t="s" r="J29">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c t="s" r="K29">
-        <v>186</v>
+        <v>138</v>
+      </c>
+      <c t="s" s="4" r="M29">
+        <v>149</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c t="s" r="O29">
+        <v>200</v>
       </c>
     </row>
     <row r="30">
       <c t="s" r="A30">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c t="s" r="B30">
         <v>22</v>
       </c>
       <c t="s" r="D30">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c t="s" r="E30">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F30">
         <v>5</v>
@@ -4292,24 +4492,33 @@
         <v>3</v>
       </c>
       <c t="s" r="J30">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c t="s" r="K30">
-        <v>189</v>
+        <v>138</v>
+      </c>
+      <c t="s" s="4" r="M30">
+        <v>149</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c t="s" r="O30">
+        <v>203</v>
       </c>
     </row>
     <row r="31">
       <c t="s" r="A31">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c t="s" r="B31">
         <v>22</v>
       </c>
       <c t="s" r="D31">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c t="s" r="E31">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F31">
         <v>6</v>
@@ -4324,27 +4533,30 @@
         <v>4</v>
       </c>
       <c t="s" r="J31">
-        <v>188</v>
-      </c>
-      <c t="s" r="K31">
-        <v>191</v>
-      </c>
-      <c t="s" r="L31">
-        <v>192</v>
+        <v>202</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
+      </c>
+      <c t="s" r="O31">
+        <v>205</v>
+      </c>
+      <c t="s" r="P31">
+        <v>206</v>
       </c>
     </row>
     <row r="32">
       <c t="s" r="A32">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c t="s" r="B32">
         <v>22</v>
       </c>
       <c t="s" r="D32">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c t="s" r="E32">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -4359,24 +4571,33 @@
         <v>3</v>
       </c>
       <c t="s" r="J32">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c t="s" r="K32">
-        <v>195</v>
+        <v>138</v>
+      </c>
+      <c t="s" s="4" r="M32">
+        <v>124</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c t="s" r="O32">
+        <v>209</v>
       </c>
     </row>
     <row r="33">
       <c t="s" r="A33">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c t="s" r="B33">
         <v>22</v>
       </c>
       <c t="s" r="D33">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c t="s" r="E33">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -4391,24 +4612,27 @@
         <v>2</v>
       </c>
       <c t="s" r="J33">
-        <v>194</v>
-      </c>
-      <c t="s" r="K33">
-        <v>197</v>
+        <v>208</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c t="s" r="O33">
+        <v>211</v>
       </c>
     </row>
     <row r="34">
       <c t="s" r="A34">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c t="s" r="B34">
         <v>22</v>
       </c>
       <c t="s" r="D34">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c t="s" r="E34">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F34">
         <v>3</v>
@@ -4423,24 +4647,27 @@
         <v>8</v>
       </c>
       <c t="s" r="J34">
-        <v>199</v>
-      </c>
-      <c t="s" r="K34">
-        <v>200</v>
+        <v>213</v>
+      </c>
+      <c r="N34">
+        <v>5</v>
+      </c>
+      <c t="s" r="O34">
+        <v>214</v>
       </c>
     </row>
     <row r="35">
       <c t="s" r="A35">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c t="s" r="B35">
         <v>22</v>
       </c>
       <c t="s" r="D35">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c t="s" r="E35">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F35">
         <v>4</v>
@@ -4455,27 +4682,33 @@
         <v>8</v>
       </c>
       <c t="s" r="J35">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c t="s" r="K35">
-        <v>202</v>
-      </c>
-      <c t="s" r="L35">
-        <v>203</v>
+        <v>122</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c t="s" r="O35">
+        <v>216</v>
+      </c>
+      <c t="s" r="P35">
+        <v>217</v>
       </c>
     </row>
     <row r="36">
       <c t="s" r="A36">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c t="s" r="B36">
         <v>22</v>
       </c>
       <c t="s" r="D36">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c t="s" r="E36">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F36">
         <v>5</v>
@@ -4490,27 +4723,36 @@
         <v>6</v>
       </c>
       <c t="s" r="J36">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c t="s" r="K36">
-        <v>205</v>
-      </c>
-      <c t="s" r="L36">
-        <v>206</v>
+        <v>138</v>
+      </c>
+      <c t="s" s="4" r="M36">
+        <v>149</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c t="s" r="O36">
+        <v>219</v>
+      </c>
+      <c t="s" r="P36">
+        <v>220</v>
       </c>
     </row>
     <row r="37">
       <c t="s" r="A37">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c t="s" r="B37">
         <v>22</v>
       </c>
       <c t="s" r="D37">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c t="s" r="E37">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F37">
         <v>6</v>
@@ -4525,27 +4767,30 @@
         <v>11</v>
       </c>
       <c t="s" r="J37">
-        <v>208</v>
-      </c>
-      <c t="s" r="K37">
-        <v>209</v>
-      </c>
-      <c t="s" r="L37">
-        <v>210</v>
+        <v>222</v>
+      </c>
+      <c r="N37">
+        <v>6</v>
+      </c>
+      <c t="s" r="O37">
+        <v>223</v>
+      </c>
+      <c t="s" r="P37">
+        <v>224</v>
       </c>
     </row>
     <row r="38">
       <c t="s" r="A38">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c t="s" r="B38">
         <v>22</v>
       </c>
       <c t="s" r="D38">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c t="s" r="E38">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -4560,24 +4805,33 @@
         <v>3</v>
       </c>
       <c t="s" r="J38">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c t="s" r="K38">
-        <v>213</v>
+        <v>138</v>
+      </c>
+      <c t="s" s="4" r="M38">
+        <v>149</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c t="s" r="O38">
+        <v>227</v>
       </c>
     </row>
     <row r="39">
       <c t="s" r="A39">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c t="s" r="B39">
         <v>22</v>
       </c>
       <c t="s" r="D39">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c t="s" r="E39">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -4592,24 +4846,27 @@
         <v>4</v>
       </c>
       <c t="s" r="J39">
-        <v>212</v>
-      </c>
-      <c t="s" r="K39">
-        <v>215</v>
+        <v>226</v>
+      </c>
+      <c t="s" r="N39">
+        <v>134</v>
+      </c>
+      <c t="s" r="O39">
+        <v>229</v>
       </c>
     </row>
     <row r="40">
       <c t="s" r="A40">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c t="s" r="B40">
         <v>22</v>
       </c>
       <c t="s" r="D40">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c t="s" r="E40">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F40">
         <v>4</v>
@@ -4624,24 +4881,30 @@
         <v>10</v>
       </c>
       <c t="s" r="J40">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c t="s" r="K40">
-        <v>218</v>
+        <v>122</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c t="s" r="O40">
+        <v>232</v>
       </c>
     </row>
     <row r="41">
       <c t="s" r="A41">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c t="s" r="B41">
         <v>22</v>
       </c>
       <c t="s" r="D41">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c t="s" r="E41">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -4656,24 +4919,27 @@
         <v>6</v>
       </c>
       <c t="s" r="J41">
-        <v>217</v>
-      </c>
-      <c t="s" r="K41">
-        <v>220</v>
+        <v>231</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c t="s" r="O41">
+        <v>234</v>
       </c>
     </row>
     <row r="42">
       <c t="s" r="A42">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c t="s" r="B42">
         <v>22</v>
       </c>
       <c t="s" r="D42">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c t="s" r="E42">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F42">
         <v>5</v>
@@ -4688,27 +4954,36 @@
         <v>15</v>
       </c>
       <c t="s" r="J42">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c t="s" r="K42">
-        <v>223</v>
-      </c>
-      <c t="s" r="L42">
-        <v>224</v>
+        <v>122</v>
+      </c>
+      <c t="s" s="4" r="M42">
+        <v>124</v>
+      </c>
+      <c r="N42">
+        <v>5</v>
+      </c>
+      <c t="s" r="O42">
+        <v>237</v>
+      </c>
+      <c t="s" r="P42">
+        <v>238</v>
       </c>
     </row>
     <row r="43">
       <c t="s" r="A43">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c t="s" r="B43">
         <v>22</v>
       </c>
       <c t="s" r="D43">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c t="s" r="E43">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F43">
         <v>6</v>
@@ -4723,28 +4998,31 @@
         <v>14</v>
       </c>
       <c t="s" r="J43">
-        <v>226</v>
-      </c>
-      <c t="s" r="K43">
-        <v>227</v>
-      </c>
-      <c t="s" r="L43">
-        <v>228</v>
+        <v>240</v>
+      </c>
+      <c r="N43">
+        <v>7</v>
+      </c>
+      <c t="s" r="O43">
+        <v>241</v>
+      </c>
+      <c t="s" r="P43">
+        <v>242</v>
       </c>
     </row>
     <row r="44">
       <c t="s" s="4" r="A44">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c t="s" s="4" r="B44">
         <v>22</v>
       </c>
       <c s="4" r="C44"/>
       <c t="s" s="4" r="D44">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c t="s" s="4" r="E44">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c s="4" r="F44">
         <v>1</v>
@@ -4759,25 +5037,35 @@
         <v>5</v>
       </c>
       <c t="s" s="4" r="J44">
-        <v>230</v>
-      </c>
-      <c t="s" s="4" r="K44">
-        <v>231</v>
+        <v>244</v>
+      </c>
+      <c t="s" r="K44">
+        <v>122</v>
       </c>
       <c s="4" r="L44"/>
+      <c t="s" s="4" r="M44">
+        <v>124</v>
+      </c>
+      <c s="4" r="N44">
+        <v>2</v>
+      </c>
+      <c t="s" s="4" r="O44">
+        <v>245</v>
+      </c>
+      <c s="4" r="P44"/>
     </row>
     <row r="45">
       <c t="s" r="A45">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c t="s" r="B45">
         <v>22</v>
       </c>
       <c t="s" r="D45">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c t="s" r="E45">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -4792,24 +5080,33 @@
         <v>4</v>
       </c>
       <c t="s" r="J45">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c t="s" r="K45">
-        <v>233</v>
+        <v>138</v>
+      </c>
+      <c t="s" s="4" r="M45">
+        <v>149</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c t="s" r="O45">
+        <v>247</v>
       </c>
     </row>
     <row r="46">
       <c t="s" r="A46">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c t="s" r="B46">
         <v>22</v>
       </c>
       <c t="s" r="D46">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c t="s" r="E46">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F46">
         <v>3</v>
@@ -4824,24 +5121,33 @@
         <v>8</v>
       </c>
       <c t="s" r="J46">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c t="s" r="K46">
-        <v>235</v>
+        <v>122</v>
+      </c>
+      <c t="s" s="4" r="M46">
+        <v>149</v>
+      </c>
+      <c r="N46">
+        <v>3</v>
+      </c>
+      <c t="s" r="O46">
+        <v>249</v>
       </c>
     </row>
     <row r="47">
       <c t="s" r="A47">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c t="s" r="B47">
         <v>22</v>
       </c>
       <c t="s" r="D47">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c t="s" r="E47">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F47">
         <v>4</v>
@@ -4856,27 +5162,30 @@
         <v>7</v>
       </c>
       <c t="s" r="J47">
-        <v>230</v>
-      </c>
-      <c t="s" r="K47">
-        <v>237</v>
-      </c>
-      <c t="s" r="L47">
-        <v>238</v>
+        <v>244</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c t="s" r="O47">
+        <v>251</v>
+      </c>
+      <c t="s" r="P47">
+        <v>252</v>
       </c>
     </row>
     <row r="48">
       <c t="s" r="A48">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c t="s" r="B48">
         <v>22</v>
       </c>
       <c t="s" r="D48">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c t="s" r="E48">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F48">
         <v>5</v>
@@ -4891,27 +5200,30 @@
         <v>12</v>
       </c>
       <c t="s" r="J48">
-        <v>240</v>
-      </c>
-      <c t="s" r="K48">
-        <v>241</v>
-      </c>
-      <c t="s" r="L48">
-        <v>242</v>
+        <v>254</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c t="s" r="O48">
+        <v>255</v>
+      </c>
+      <c t="s" r="P48">
+        <v>256</v>
       </c>
     </row>
     <row r="49">
       <c t="s" r="A49">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c t="s" r="B49">
         <v>22</v>
       </c>
       <c t="s" r="D49">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c t="s" r="E49">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F49">
         <v>6</v>
@@ -4926,27 +5238,30 @@
         <v>10</v>
       </c>
       <c t="s" r="J49">
-        <v>240</v>
-      </c>
-      <c t="s" r="K49">
-        <v>244</v>
-      </c>
-      <c t="s" r="L49">
-        <v>245</v>
+        <v>254</v>
+      </c>
+      <c t="s" r="N49">
+        <v>134</v>
+      </c>
+      <c t="s" r="O49">
+        <v>258</v>
+      </c>
+      <c t="s" r="P49">
+        <v>259</v>
       </c>
     </row>
     <row r="50">
       <c t="s" r="A50">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c t="s" r="B50">
         <v>22</v>
       </c>
       <c t="s" r="D50">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c t="s" r="E50">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -4961,24 +5276,27 @@
         <v>6</v>
       </c>
       <c t="s" r="J50">
-        <v>247</v>
-      </c>
-      <c t="s" r="K50">
-        <v>248</v>
+        <v>261</v>
+      </c>
+      <c t="s" r="N50">
+        <v>134</v>
+      </c>
+      <c t="s" r="O50">
+        <v>262</v>
       </c>
     </row>
     <row r="51">
       <c t="s" r="A51">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c t="s" r="B51">
         <v>22</v>
       </c>
       <c t="s" r="D51">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c t="s" r="E51">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -4993,24 +5311,33 @@
         <v>3</v>
       </c>
       <c t="s" r="J51">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c t="s" r="K51">
-        <v>250</v>
+        <v>138</v>
+      </c>
+      <c t="s" s="4" r="M51">
+        <v>149</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c t="s" r="O51">
+        <v>264</v>
       </c>
     </row>
     <row r="52">
       <c t="s" r="A52">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c t="s" r="B52">
         <v>22</v>
       </c>
       <c t="s" r="D52">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c t="s" r="E52">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F52">
         <v>4</v>
@@ -5025,27 +5352,36 @@
         <v>7</v>
       </c>
       <c t="s" r="J52">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c t="s" r="K52">
-        <v>253</v>
-      </c>
-      <c t="s" r="L52">
-        <v>254</v>
+        <v>138</v>
+      </c>
+      <c t="s" s="4" r="M52">
+        <v>149</v>
+      </c>
+      <c r="N52">
+        <v>4</v>
+      </c>
+      <c t="s" r="O52">
+        <v>267</v>
+      </c>
+      <c t="s" r="P52">
+        <v>268</v>
       </c>
     </row>
     <row r="53">
       <c t="s" r="A53">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c t="s" r="B53">
         <v>22</v>
       </c>
       <c t="s" r="D53">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c t="s" r="E53">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F53">
         <v>3</v>
@@ -5060,24 +5396,27 @@
         <v>8</v>
       </c>
       <c t="s" r="J53">
-        <v>252</v>
-      </c>
-      <c t="s" r="K53">
-        <v>256</v>
+        <v>266</v>
+      </c>
+      <c r="N53">
+        <v>4</v>
+      </c>
+      <c t="s" r="O53">
+        <v>270</v>
       </c>
     </row>
     <row r="54">
       <c t="s" r="A54">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c t="s" r="B54">
         <v>22</v>
       </c>
       <c t="s" r="D54">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c t="s" r="E54">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F54">
         <v>6</v>
@@ -5092,27 +5431,36 @@
         <v>18</v>
       </c>
       <c t="s" r="J54">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c t="s" r="K54">
-        <v>259</v>
-      </c>
-      <c t="s" r="L54">
-        <v>260</v>
+        <v>122</v>
+      </c>
+      <c t="s" s="4" r="M54">
+        <v>124</v>
+      </c>
+      <c r="N54">
+        <v>9</v>
+      </c>
+      <c t="s" r="O54">
+        <v>273</v>
+      </c>
+      <c t="s" r="P54">
+        <v>274</v>
       </c>
     </row>
     <row r="55">
       <c t="s" r="A55">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c t="s" r="B55">
         <v>22</v>
       </c>
       <c t="s" r="D55">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c t="s" r="E55">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F55">
         <v>5</v>
@@ -5127,24 +5475,27 @@
         <v>9</v>
       </c>
       <c t="s" r="J55">
-        <v>258</v>
-      </c>
-      <c t="s" r="K55">
-        <v>262</v>
+        <v>272</v>
+      </c>
+      <c t="s" r="N55">
+        <v>134</v>
+      </c>
+      <c t="s" r="O55">
+        <v>276</v>
       </c>
     </row>
     <row r="56">
       <c t="s" r="A56">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c t="s" r="B56">
         <v>22</v>
       </c>
       <c t="s" r="D56">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c t="s" r="E56">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F56">
         <v>2</v>
@@ -5159,25 +5510,34 @@
         <v>7</v>
       </c>
       <c t="s" r="J56">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c t="s" r="K56">
-        <v>265</v>
+        <v>122</v>
+      </c>
+      <c t="s" s="4" r="M56">
+        <v>124</v>
+      </c>
+      <c r="N56">
+        <v>4</v>
+      </c>
+      <c t="s" r="O56">
+        <v>279</v>
       </c>
     </row>
     <row r="57">
       <c t="s" s="4" r="A57">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c t="s" s="4" r="B57">
         <v>22</v>
       </c>
       <c s="4" r="C57"/>
       <c t="s" s="4" r="D57">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c t="s" s="4" r="E57">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c s="4" r="F57">
         <v>1</v>
@@ -5192,25 +5552,31 @@
         <v>5</v>
       </c>
       <c t="s" s="4" r="J57">
-        <v>267</v>
-      </c>
-      <c t="s" s="4" r="K57">
-        <v>268</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c s="4" r="K57"/>
       <c s="4" r="L57"/>
+      <c s="4" r="M57"/>
+      <c s="4" r="N57">
+        <v>2</v>
+      </c>
+      <c t="s" s="4" r="O57">
+        <v>282</v>
+      </c>
+      <c s="4" r="P57"/>
     </row>
     <row r="58">
       <c t="s" r="A58">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c t="s" r="B58">
         <v>22</v>
       </c>
       <c t="s" r="D58">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c t="s" r="E58">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F58">
         <v>3</v>
@@ -5225,24 +5591,33 @@
         <v>8</v>
       </c>
       <c t="s" r="J58">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c t="s" r="K58">
-        <v>271</v>
+        <v>138</v>
+      </c>
+      <c t="s" s="4" r="M58">
+        <v>149</v>
+      </c>
+      <c r="N58">
+        <v>4</v>
+      </c>
+      <c t="s" r="O58">
+        <v>285</v>
       </c>
     </row>
     <row r="59">
       <c t="s" r="A59">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c t="s" r="B59">
         <v>22</v>
       </c>
       <c t="s" r="D59">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c t="s" r="E59">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F59">
         <v>4</v>
@@ -5257,27 +5632,30 @@
         <v>9</v>
       </c>
       <c t="s" r="J59">
-        <v>270</v>
-      </c>
-      <c t="s" r="K59">
-        <v>273</v>
-      </c>
-      <c t="s" r="L59">
-        <v>274</v>
+        <v>284</v>
+      </c>
+      <c r="N59">
+        <v>4</v>
+      </c>
+      <c t="s" r="O59">
+        <v>287</v>
+      </c>
+      <c t="s" r="P59">
+        <v>288</v>
       </c>
     </row>
     <row r="60">
       <c t="s" r="A60">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c t="s" r="B60">
         <v>22</v>
       </c>
       <c t="s" r="D60">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c t="s" r="E60">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F60">
         <v>5</v>
@@ -5292,24 +5670,30 @@
         <v>18</v>
       </c>
       <c t="s" r="J60">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c t="s" r="K60">
-        <v>277</v>
+        <v>122</v>
+      </c>
+      <c r="N60">
+        <v>6</v>
+      </c>
+      <c t="s" r="O60">
+        <v>291</v>
       </c>
     </row>
     <row r="61">
       <c t="s" r="A61">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c t="s" r="B61">
         <v>22</v>
       </c>
       <c t="s" r="D61">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c t="s" r="E61">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F61">
         <v>6</v>
@@ -5324,18 +5708,21 @@
         <v>13</v>
       </c>
       <c t="s" r="J61">
-        <v>279</v>
-      </c>
-      <c t="s" r="K61">
-        <v>280</v>
-      </c>
-      <c t="s" r="L61">
-        <v>281</v>
+        <v>293</v>
+      </c>
+      <c t="s" r="N61">
+        <v>134</v>
+      </c>
+      <c t="s" r="O61">
+        <v>294</v>
+      </c>
+      <c t="s" r="P61">
+        <v>295</v>
       </c>
     </row>
     <row r="62">
       <c t="s" r="A62">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c t="s" r="B62">
         <v>22</v>
@@ -5344,7 +5731,7 @@
         <v>24</v>
       </c>
       <c t="s" r="E62">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -5352,7 +5739,7 @@
     </row>
     <row r="63">
       <c t="s" r="A63">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c t="s" r="B63">
         <v>22</v>
@@ -5361,7 +5748,7 @@
         <v>24</v>
       </c>
       <c t="s" r="E63">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="F63">
         <v>2</v>
@@ -5369,7 +5756,7 @@
     </row>
     <row r="64">
       <c t="s" r="A64">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c t="s" r="B64">
         <v>22</v>
@@ -5378,7 +5765,7 @@
         <v>24</v>
       </c>
       <c t="s" r="E64">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="F64">
         <v>3</v>
@@ -5386,7 +5773,7 @@
     </row>
     <row r="65">
       <c t="s" r="A65">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c t="s" r="B65">
         <v>22</v>
@@ -5395,7 +5782,7 @@
         <v>24</v>
       </c>
       <c t="s" r="E65">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="F65">
         <v>4</v>
@@ -5403,7 +5790,7 @@
     </row>
     <row r="66">
       <c t="s" r="A66">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c t="s" r="B66">
         <v>22</v>
@@ -5412,7 +5799,7 @@
         <v>24</v>
       </c>
       <c t="s" r="E66">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="F66">
         <v>5</v>
@@ -5420,7 +5807,7 @@
     </row>
     <row r="67">
       <c t="s" r="A67">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c t="s" r="B67">
         <v>22</v>
@@ -5429,7 +5816,7 @@
         <v>24</v>
       </c>
       <c t="s" r="E67">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="F67">
         <v>6</v>
@@ -5470,16 +5857,16 @@
         <v>13</v>
       </c>
       <c t="s" s="7" r="D1">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c t="s" s="7" r="E1">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c t="s" s="7" r="F1">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c t="s" s="7" r="G1">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c t="s" s="7" r="H1">
         <v>15</v>
@@ -5491,7 +5878,7 @@
         <v>17</v>
       </c>
       <c t="s" s="7" r="K1">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c t="s" s="7" r="L1">
         <v>18</v>
@@ -5505,7 +5892,7 @@
     </row>
     <row r="2">
       <c t="s" s="4" r="A2">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c t="s" s="4" r="B2">
         <v>22</v>
@@ -5515,10 +5902,10 @@
         <v>1</v>
       </c>
       <c t="s" s="4" r="E2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c t="s" s="4" r="F2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c s="4" r="G2">
         <v>0</v>
@@ -5539,7 +5926,7 @@
     </row>
     <row r="3">
       <c t="s" r="A3">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c t="s" r="B3">
         <v>22</v>
@@ -5548,10 +5935,10 @@
         <v>2</v>
       </c>
       <c t="s" r="E3">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c t="s" r="F3">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -5565,16 +5952,13 @@
       <c r="J3">
         <v>2</v>
       </c>
-      <c t="s" r="L3">
-        <v>298</v>
-      </c>
-      <c t="s" r="N3">
-        <v>299</v>
+      <c t="s" r="M3">
+        <v>312</v>
       </c>
     </row>
     <row r="4">
       <c t="s" r="A4">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c t="s" r="B4">
         <v>22</v>
@@ -5583,10 +5967,10 @@
         <v>3</v>
       </c>
       <c t="s" r="E4">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c t="s" r="F4">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -5600,16 +5984,13 @@
       <c r="J4">
         <v>1</v>
       </c>
-      <c t="s" r="L4">
-        <v>302</v>
-      </c>
-      <c t="s" r="N4">
-        <v>299</v>
+      <c t="s" r="M4">
+        <v>315</v>
       </c>
     </row>
     <row r="5">
       <c t="s" r="A5">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c t="s" r="B5">
         <v>22</v>
@@ -5618,10 +5999,10 @@
         <v>4</v>
       </c>
       <c t="s" r="E5">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c t="s" r="F5">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -5635,16 +6016,13 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c t="s" r="L5">
-        <v>252</v>
-      </c>
-      <c t="s" r="N5">
-        <v>299</v>
+      <c t="s" r="M5">
+        <v>266</v>
       </c>
     </row>
     <row r="6">
       <c t="s" r="A6">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c t="s" r="B6">
         <v>22</v>
@@ -5653,10 +6031,10 @@
         <v>5</v>
       </c>
       <c t="s" r="E6">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c t="s" r="F6">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -5670,16 +6048,13 @@
       <c r="J6">
         <v>7</v>
       </c>
-      <c t="s" r="L6">
-        <v>212</v>
-      </c>
-      <c t="s" r="N6">
-        <v>299</v>
+      <c t="s" r="M6">
+        <v>226</v>
       </c>
     </row>
     <row r="7">
       <c t="s" r="A7">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c t="s" r="B7">
         <v>22</v>
@@ -5688,10 +6063,10 @@
         <v>6</v>
       </c>
       <c t="s" r="E7">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c t="s" r="F7">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -5705,16 +6080,13 @@
       <c r="J7">
         <v>4</v>
       </c>
-      <c t="s" r="L7">
-        <v>307</v>
-      </c>
-      <c t="s" r="N7">
-        <v>299</v>
+      <c t="s" r="M7">
+        <v>320</v>
       </c>
     </row>
     <row r="8">
       <c t="s" r="A8">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c t="s" r="B8">
         <v>22</v>
@@ -5723,10 +6095,10 @@
         <v>7</v>
       </c>
       <c t="s" r="E8">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c t="s" r="F8">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="G8">
         <v>8</v>
@@ -5740,19 +6112,16 @@
       <c r="J8">
         <v>2</v>
       </c>
-      <c t="s" r="L8">
-        <v>309</v>
-      </c>
       <c t="s" r="M8">
-        <v>247</v>
+        <v>322</v>
       </c>
       <c t="s" r="N8">
-        <v>299</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9">
       <c t="s" r="A9">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c t="s" r="B9">
         <v>22</v>
@@ -5761,10 +6130,10 @@
         <v>8</v>
       </c>
       <c t="s" r="E9">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c t="s" r="F9">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -5778,19 +6147,16 @@
       <c r="J9">
         <v>3</v>
       </c>
-      <c t="s" r="L9">
-        <v>311</v>
-      </c>
       <c t="s" r="M9">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c t="s" r="N9">
-        <v>299</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10">
       <c t="s" r="A10">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c t="s" r="B10">
         <v>22</v>
@@ -5799,10 +6165,10 @@
         <v>9</v>
       </c>
       <c t="s" r="E10">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c t="s" r="F10">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -5816,19 +6182,16 @@
       <c r="J10">
         <v>12</v>
       </c>
-      <c t="s" r="L10">
-        <v>222</v>
-      </c>
       <c t="s" r="M10">
-        <v>314</v>
+        <v>236</v>
       </c>
       <c t="s" r="N10">
-        <v>299</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11">
       <c t="s" r="A11">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c t="s" r="B11">
         <v>22</v>
@@ -5837,21 +6200,21 @@
         <v>1</v>
       </c>
       <c t="s" r="E11">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c t="s" r="F11">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
-      <c t="s" r="L11">
-        <v>318</v>
+      <c t="s" r="M11">
+        <v>331</v>
       </c>
     </row>
     <row r="12">
       <c t="s" r="A12">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c t="s" r="B12">
         <v>22</v>
@@ -5860,21 +6223,21 @@
         <v>1</v>
       </c>
       <c t="s" r="E12">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c t="s" r="F12">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
-      <c t="s" r="L12">
-        <v>321</v>
+      <c t="s" r="M12">
+        <v>334</v>
       </c>
     </row>
     <row r="13">
       <c t="s" r="A13">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c t="s" r="B13">
         <v>22</v>
@@ -5883,21 +6246,21 @@
         <v>1</v>
       </c>
       <c t="s" r="E13">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c t="s" r="F13">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
-      <c t="s" r="L13">
-        <v>324</v>
+      <c t="s" r="M13">
+        <v>337</v>
       </c>
     </row>
     <row r="14">
       <c t="s" r="A14">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c t="s" r="B14">
         <v>22</v>
@@ -5906,21 +6269,21 @@
         <v>2</v>
       </c>
       <c t="s" r="E14">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c t="s" r="F14">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
-      <c t="s" r="L14">
-        <v>326</v>
+      <c t="s" r="M14">
+        <v>339</v>
       </c>
     </row>
     <row r="15">
       <c t="s" r="A15">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c t="s" r="B15">
         <v>22</v>
@@ -5929,21 +6292,21 @@
         <v>2</v>
       </c>
       <c t="s" r="E15">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c t="s" r="F15">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="K15">
         <v>2</v>
       </c>
-      <c t="s" r="L15">
-        <v>329</v>
+      <c t="s" r="M15">
+        <v>342</v>
       </c>
     </row>
     <row r="16">
       <c t="s" r="A16">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c t="s" r="B16">
         <v>22</v>
@@ -5952,21 +6315,21 @@
         <v>2</v>
       </c>
       <c t="s" r="E16">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c t="s" r="F16">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
-      <c t="s" r="L16">
-        <v>331</v>
+      <c t="s" r="M16">
+        <v>344</v>
       </c>
     </row>
     <row r="17">
       <c t="s" r="A17">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c t="s" r="B17">
         <v>22</v>
@@ -5975,21 +6338,21 @@
         <v>3</v>
       </c>
       <c t="s" r="E17">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c t="s" r="F17">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
-      <c t="s" r="L17">
-        <v>333</v>
+      <c t="s" r="M17">
+        <v>346</v>
       </c>
     </row>
     <row r="18">
       <c t="s" r="A18">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c t="s" r="B18">
         <v>22</v>
@@ -5998,21 +6361,21 @@
         <v>3</v>
       </c>
       <c t="s" r="E18">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c t="s" r="F18">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
-      <c t="s" r="L18">
-        <v>335</v>
+      <c t="s" r="M18">
+        <v>348</v>
       </c>
     </row>
     <row r="19">
       <c t="s" s="6" r="A19">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c t="s" s="6" r="B19">
         <v>22</v>
@@ -6022,10 +6385,10 @@
         <v>3</v>
       </c>
       <c t="s" s="6" r="E19">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c t="s" s="6" r="F19">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c s="6" r="G19"/>
       <c s="6" r="H19"/>
@@ -6034,15 +6397,15 @@
       <c s="6" r="K19">
         <v>1</v>
       </c>
-      <c t="s" s="6" r="L19">
-        <v>337</v>
-      </c>
-      <c s="6" r="M19"/>
+      <c s="6" r="L19"/>
+      <c t="s" s="6" r="M19">
+        <v>350</v>
+      </c>
       <c s="6" r="N19"/>
     </row>
     <row r="20">
       <c t="s" s="6" r="A20">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c t="s" s="6" r="B20">
         <v>22</v>
@@ -6052,25 +6415,25 @@
         <v>4</v>
       </c>
       <c t="s" s="6" r="E20">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c t="s" s="6" r="F20">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c s="6" r="G20"/>
       <c s="6" r="H20"/>
       <c s="6" r="I20"/>
       <c s="6" r="J20"/>
       <c s="6" r="K20"/>
-      <c t="s" s="6" r="L20">
-        <v>339</v>
-      </c>
-      <c s="6" r="M20"/>
+      <c s="6" r="L20"/>
+      <c t="s" s="6" r="M20">
+        <v>352</v>
+      </c>
       <c s="6" r="N20"/>
     </row>
     <row r="21">
       <c t="s" s="1" r="A21">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c t="s" s="1" r="B21">
         <v>22</v>
@@ -6080,10 +6443,10 @@
         <v>4</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c t="s" s="1" r="F21">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c s="1" r="G21"/>
       <c s="1" r="H21"/>
@@ -6092,15 +6455,15 @@
       <c s="1" r="K21">
         <v>1</v>
       </c>
-      <c t="s" s="1" r="L21">
-        <v>341</v>
-      </c>
-      <c s="1" r="M21"/>
+      <c s="1" r="L21"/>
+      <c t="s" s="1" r="M21">
+        <v>354</v>
+      </c>
       <c s="1" r="N21"/>
     </row>
     <row r="22">
       <c t="s" s="6" r="A22">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c t="s" s="6" r="B22">
         <v>22</v>
@@ -6110,10 +6473,10 @@
         <v>4</v>
       </c>
       <c t="s" s="6" r="E22">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c t="s" s="6" r="F22">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c s="6" r="G22"/>
       <c s="6" r="H22"/>
@@ -6134,10 +6497,10 @@
         <v>5</v>
       </c>
       <c t="s" s="9" r="E23">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c t="s" s="9" r="F23">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c s="9" r="G23"/>
       <c s="9" r="H23"/>
@@ -6158,10 +6521,10 @@
         <v>5</v>
       </c>
       <c t="s" s="9" r="E24">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c t="s" s="9" r="F24">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c s="9" r="G24"/>
       <c s="9" r="H24"/>
@@ -6182,10 +6545,10 @@
         <v>5</v>
       </c>
       <c t="s" s="9" r="E25">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c t="s" s="9" r="F25">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c s="9" r="G25"/>
       <c s="9" r="H25"/>
@@ -6206,10 +6569,10 @@
         <v>6</v>
       </c>
       <c t="s" s="9" r="E26">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c t="s" s="9" r="F26">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c s="9" r="G26"/>
       <c s="9" r="H26"/>
@@ -6230,10 +6593,10 @@
         <v>6</v>
       </c>
       <c t="s" s="9" r="E27">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c t="s" s="9" r="F27">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c s="9" r="G27"/>
       <c s="9" r="H27"/>
@@ -6254,10 +6617,10 @@
         <v>6</v>
       </c>
       <c t="s" s="9" r="E28">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c t="s" s="9" r="F28">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c s="9" r="G28"/>
       <c s="9" r="H28"/>
@@ -6278,10 +6641,10 @@
         <v>7</v>
       </c>
       <c t="s" s="9" r="E29">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c t="s" s="9" r="F29">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c s="9" r="G29"/>
       <c s="9" r="H29"/>
@@ -6302,10 +6665,10 @@
         <v>7</v>
       </c>
       <c t="s" s="9" r="E30">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c t="s" s="9" r="F30">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c s="9" r="G30"/>
       <c s="9" r="H30"/>
@@ -6326,10 +6689,10 @@
         <v>7</v>
       </c>
       <c t="s" s="9" r="E31">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c t="s" s="9" r="F31">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c s="9" r="G31"/>
       <c s="9" r="H31"/>
@@ -6350,10 +6713,10 @@
         <v>8</v>
       </c>
       <c t="s" s="9" r="E32">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c t="s" s="9" r="F32">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c s="9" r="G32"/>
       <c s="9" r="H32"/>
@@ -6374,10 +6737,10 @@
         <v>8</v>
       </c>
       <c t="s" s="9" r="E33">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c t="s" s="9" r="F33">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c s="9" r="G33"/>
       <c s="9" r="H33"/>
@@ -6398,10 +6761,10 @@
         <v>8</v>
       </c>
       <c t="s" s="9" r="E34">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c t="s" s="9" r="F34">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c s="9" r="G34"/>
       <c s="9" r="H34"/>
@@ -6422,10 +6785,10 @@
         <v>9</v>
       </c>
       <c t="s" s="9" r="E35">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c t="s" s="9" r="F35">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c s="9" r="G35"/>
       <c s="9" r="H35"/>
@@ -6446,10 +6809,10 @@
         <v>9</v>
       </c>
       <c t="s" s="9" r="E36">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c t="s" s="9" r="F36">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c s="9" r="G36"/>
       <c s="9" r="H36"/>
@@ -6470,10 +6833,10 @@
         <v>9</v>
       </c>
       <c t="s" s="9" r="E37">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c t="s" s="9" r="F37">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c s="9" r="G37"/>
       <c s="9" r="H37"/>
@@ -6492,16 +6855,16 @@
         <v>1</v>
       </c>
       <c t="s" r="E38">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c t="s" r="F38">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="I38">
         <v>3</v>
       </c>
-      <c t="s" r="L38">
-        <v>344</v>
+      <c t="s" r="M38">
+        <v>357</v>
       </c>
     </row>
     <row r="39">
@@ -6512,13 +6875,13 @@
         <v>2</v>
       </c>
       <c t="s" r="E39">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c t="s" r="F39">
-        <v>343</v>
-      </c>
-      <c t="s" r="L39">
-        <v>344</v>
+        <v>356</v>
+      </c>
+      <c t="s" r="M39">
+        <v>357</v>
       </c>
     </row>
     <row r="40">
@@ -6529,13 +6892,13 @@
         <v>3</v>
       </c>
       <c t="s" r="E40">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c t="s" r="F40">
-        <v>343</v>
-      </c>
-      <c t="s" r="L40">
-        <v>344</v>
+        <v>356</v>
+      </c>
+      <c t="s" r="M40">
+        <v>357</v>
       </c>
     </row>
     <row r="41">
@@ -6546,13 +6909,13 @@
         <v>4</v>
       </c>
       <c t="s" r="E41">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c t="s" r="F41">
-        <v>343</v>
-      </c>
-      <c t="s" r="L41">
-        <v>344</v>
+        <v>356</v>
+      </c>
+      <c t="s" r="M41">
+        <v>357</v>
       </c>
     </row>
     <row r="42">
@@ -6563,13 +6926,13 @@
         <v>5</v>
       </c>
       <c t="s" r="E42">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c t="s" r="F42">
-        <v>343</v>
-      </c>
-      <c t="s" r="L42">
-        <v>344</v>
+        <v>356</v>
+      </c>
+      <c t="s" r="M42">
+        <v>357</v>
       </c>
     </row>
     <row r="43">
@@ -6580,13 +6943,13 @@
         <v>6</v>
       </c>
       <c t="s" r="E43">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c t="s" r="F43">
-        <v>343</v>
-      </c>
-      <c t="s" r="L43">
-        <v>344</v>
+        <v>356</v>
+      </c>
+      <c t="s" r="M43">
+        <v>357</v>
       </c>
     </row>
     <row r="44">
@@ -6597,13 +6960,13 @@
         <v>7</v>
       </c>
       <c t="s" r="E44">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c t="s" r="F44">
-        <v>343</v>
-      </c>
-      <c t="s" r="L44">
-        <v>344</v>
+        <v>356</v>
+      </c>
+      <c t="s" r="M44">
+        <v>357</v>
       </c>
     </row>
     <row r="45">
@@ -6614,13 +6977,13 @@
         <v>8</v>
       </c>
       <c t="s" r="E45">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c t="s" r="F45">
-        <v>343</v>
-      </c>
-      <c t="s" r="L45">
-        <v>344</v>
+        <v>356</v>
+      </c>
+      <c t="s" r="M45">
+        <v>357</v>
       </c>
     </row>
     <row r="46">
@@ -6631,13 +6994,13 @@
         <v>9</v>
       </c>
       <c t="s" r="E46">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c t="s" r="F46">
-        <v>343</v>
-      </c>
-      <c t="s" r="L46">
-        <v>344</v>
+        <v>356</v>
+      </c>
+      <c t="s" r="M46">
+        <v>357</v>
       </c>
     </row>
     <row r="47">
@@ -6648,10 +7011,10 @@
         <v>1</v>
       </c>
       <c t="s" r="E47">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c t="s" r="F47">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="48">
@@ -6662,10 +7025,10 @@
         <v>2</v>
       </c>
       <c t="s" r="E48">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c t="s" r="F48">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="49">
@@ -6676,10 +7039,10 @@
         <v>3</v>
       </c>
       <c t="s" r="E49">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c t="s" r="F49">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="50">
@@ -6690,10 +7053,10 @@
         <v>4</v>
       </c>
       <c t="s" r="E50">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c t="s" r="F50">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51">
@@ -6704,10 +7067,10 @@
         <v>5</v>
       </c>
       <c t="s" r="E51">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c t="s" r="F51">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="52">
@@ -6718,10 +7081,10 @@
         <v>6</v>
       </c>
       <c t="s" r="E52">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c t="s" r="F52">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="53">
@@ -6732,10 +7095,10 @@
         <v>7</v>
       </c>
       <c t="s" r="E53">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c t="s" r="F53">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="54">
@@ -6746,10 +7109,10 @@
         <v>8</v>
       </c>
       <c t="s" r="E54">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c t="s" r="F54">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="55">
@@ -6760,15 +7123,15 @@
         <v>9</v>
       </c>
       <c t="s" r="E55">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c t="s" r="F55">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="56">
       <c t="s" r="A56">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c t="s" r="B56">
         <v>22</v>
@@ -6777,18 +7140,18 @@
         <v>1</v>
       </c>
       <c t="s" r="E56">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c t="s" r="F56">
-        <v>348</v>
-      </c>
-      <c t="s" r="L56">
-        <v>349</v>
+        <v>361</v>
+      </c>
+      <c t="s" r="M56">
+        <v>362</v>
       </c>
     </row>
     <row r="57">
       <c t="s" s="4" r="A57">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c t="s" s="4" r="B57">
         <v>22</v>
@@ -6798,10 +7161,10 @@
         <v>1</v>
       </c>
       <c t="s" s="4" r="E57">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c t="s" s="4" r="F57">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c s="4" r="G57"/>
       <c s="4" r="H57"/>
@@ -6810,15 +7173,15 @@
       </c>
       <c s="4" r="J57"/>
       <c s="4" r="K57"/>
-      <c t="s" s="4" r="L57">
-        <v>352</v>
-      </c>
-      <c s="4" r="M57"/>
+      <c s="4" r="L57"/>
+      <c t="s" s="4" r="M57">
+        <v>365</v>
+      </c>
       <c s="4" r="N57"/>
     </row>
     <row r="58">
       <c t="s" r="A58">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c t="s" r="B58">
         <v>22</v>
@@ -6827,24 +7190,24 @@
         <v>1</v>
       </c>
       <c t="s" r="E58">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c t="s" r="F58">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
-      <c t="s" r="L58">
-        <v>355</v>
-      </c>
       <c t="s" r="M58">
-        <v>356</v>
+        <v>368</v>
+      </c>
+      <c t="s" r="N58">
+        <v>369</v>
       </c>
     </row>
     <row r="59">
       <c t="s" r="A59">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c t="s" r="B59">
         <v>22</v>
@@ -6853,18 +7216,18 @@
         <v>1</v>
       </c>
       <c t="s" r="E59">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c t="s" r="F59">
-        <v>348</v>
-      </c>
-      <c t="s" r="L59">
-        <v>359</v>
+        <v>361</v>
+      </c>
+      <c t="s" r="M59">
+        <v>372</v>
       </c>
     </row>
     <row r="60">
       <c t="s" r="A60">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c t="s" r="B60">
         <v>22</v>
@@ -6873,21 +7236,21 @@
         <v>2</v>
       </c>
       <c t="s" r="E60">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c t="s" r="F60">
-        <v>348</v>
-      </c>
-      <c t="s" r="L60">
         <v>361</v>
       </c>
       <c t="s" r="M60">
-        <v>362</v>
+        <v>374</v>
+      </c>
+      <c t="s" r="N60">
+        <v>375</v>
       </c>
     </row>
     <row r="61">
       <c t="s" r="A61">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c t="s" r="B61">
         <v>22</v>
@@ -6896,24 +7259,24 @@
         <v>2</v>
       </c>
       <c t="s" r="E61">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c t="s" r="F61">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="I61">
         <v>-5</v>
       </c>
-      <c t="s" r="L61">
-        <v>364</v>
-      </c>
       <c t="s" r="M61">
-        <v>365</v>
+        <v>377</v>
+      </c>
+      <c t="s" r="N61">
+        <v>378</v>
       </c>
     </row>
     <row r="62">
       <c t="s" r="A62">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c t="s" r="B62">
         <v>22</v>
@@ -6922,21 +7285,21 @@
         <v>2</v>
       </c>
       <c t="s" r="E62">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c t="s" r="F62">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="I62">
         <v>2</v>
       </c>
-      <c t="s" r="L62">
-        <v>367</v>
+      <c t="s" r="M62">
+        <v>380</v>
       </c>
     </row>
     <row r="63">
       <c t="s" r="A63">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c t="s" r="B63">
         <v>22</v>
@@ -6945,16 +7308,16 @@
         <v>2</v>
       </c>
       <c t="s" r="E63">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c t="s" r="F63">
-        <v>348</v>
-      </c>
-      <c t="s" r="L63">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c t="s" r="M63">
-        <v>370</v>
+        <v>382</v>
+      </c>
+      <c t="s" r="N63">
+        <v>383</v>
       </c>
     </row>
     <row r="64">
@@ -6965,10 +7328,10 @@
         <v>3</v>
       </c>
       <c t="s" r="E64">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c t="s" r="F64">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="65">
@@ -6979,10 +7342,10 @@
         <v>3</v>
       </c>
       <c t="s" r="E65">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c t="s" r="F65">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="66">
@@ -6993,10 +7356,10 @@
         <v>3</v>
       </c>
       <c t="s" r="E66">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c t="s" r="F66">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="67">
@@ -7007,10 +7370,10 @@
         <v>3</v>
       </c>
       <c t="s" r="E67">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c t="s" r="F67">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="68">
@@ -7021,15 +7384,15 @@
         <v>4</v>
       </c>
       <c t="s" r="E68">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c t="s" r="F68">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="69">
       <c t="s" r="A69">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c t="s" r="B69">
         <v>22</v>
@@ -7038,13 +7401,13 @@
         <v>4</v>
       </c>
       <c t="s" r="E69">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c t="s" r="F69">
-        <v>348</v>
-      </c>
-      <c t="s" r="L69">
-        <v>372</v>
+        <v>361</v>
+      </c>
+      <c t="s" r="M69">
+        <v>385</v>
       </c>
     </row>
     <row r="70">
@@ -7055,10 +7418,10 @@
         <v>4</v>
       </c>
       <c t="s" r="E70">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c t="s" r="F70">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="71">
@@ -7069,10 +7432,10 @@
         <v>4</v>
       </c>
       <c t="s" r="E71">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c t="s" r="F71">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="72">
@@ -7083,15 +7446,15 @@
         <v>5</v>
       </c>
       <c t="s" r="E72">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c t="s" r="F72">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="73">
       <c t="s" r="A73">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c t="s" r="B73">
         <v>22</v>
@@ -7100,10 +7463,10 @@
         <v>5</v>
       </c>
       <c t="s" r="E73">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c t="s" r="F73">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="G73">
         <v>-2</v>
@@ -7111,11 +7474,11 @@
       <c r="I73">
         <v>-1</v>
       </c>
-      <c t="s" r="L73">
-        <v>374</v>
-      </c>
       <c t="s" r="M73">
-        <v>375</v>
+        <v>387</v>
+      </c>
+      <c t="s" r="N73">
+        <v>388</v>
       </c>
     </row>
     <row r="74">
@@ -7126,10 +7489,10 @@
         <v>5</v>
       </c>
       <c t="s" r="E74">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c t="s" r="F74">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="75">
@@ -7140,10 +7503,10 @@
         <v>5</v>
       </c>
       <c t="s" r="E75">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c t="s" r="F75">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="76">
@@ -7154,10 +7517,10 @@
         <v>6</v>
       </c>
       <c t="s" r="E76">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c t="s" r="F76">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="77">
@@ -7168,10 +7531,10 @@
         <v>6</v>
       </c>
       <c t="s" r="E77">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c t="s" r="F77">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="78">
@@ -7182,10 +7545,10 @@
         <v>6</v>
       </c>
       <c t="s" r="E78">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c t="s" r="F78">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="79">
@@ -7196,10 +7559,10 @@
         <v>6</v>
       </c>
       <c t="s" r="E79">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c t="s" r="F79">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="80">
@@ -7210,10 +7573,10 @@
         <v>7</v>
       </c>
       <c t="s" r="E80">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c t="s" r="F80">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="81">
@@ -7224,10 +7587,10 @@
         <v>7</v>
       </c>
       <c t="s" r="E81">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c t="s" r="F81">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="82">
@@ -7238,10 +7601,10 @@
         <v>7</v>
       </c>
       <c t="s" r="E82">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c t="s" r="F82">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="83">
@@ -7252,10 +7615,10 @@
         <v>7</v>
       </c>
       <c t="s" r="E83">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c t="s" r="F83">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="84">
@@ -7266,10 +7629,10 @@
         <v>8</v>
       </c>
       <c t="s" r="E84">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c t="s" r="F84">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="85">
@@ -7280,10 +7643,10 @@
         <v>8</v>
       </c>
       <c t="s" r="E85">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c t="s" r="F85">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="86">
@@ -7294,10 +7657,10 @@
         <v>8</v>
       </c>
       <c t="s" r="E86">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c t="s" r="F86">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="87">
@@ -7308,15 +7671,15 @@
         <v>8</v>
       </c>
       <c t="s" r="E87">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c t="s" r="F87">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="88">
       <c t="s" r="A88">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c t="s" r="B88">
         <v>22</v>
@@ -7325,19 +7688,19 @@
         <v>9</v>
       </c>
       <c t="s" r="E88">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c t="s" r="F88">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="I88">
         <v>5</v>
       </c>
-      <c t="s" r="L88">
-        <v>377</v>
-      </c>
       <c t="s" r="M88">
-        <v>378</v>
+        <v>390</v>
+      </c>
+      <c t="s" r="N88">
+        <v>391</v>
       </c>
     </row>
     <row r="89">
@@ -7348,10 +7711,10 @@
         <v>9</v>
       </c>
       <c t="s" r="E89">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c t="s" r="F89">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="90">
@@ -7362,15 +7725,15 @@
         <v>9</v>
       </c>
       <c t="s" r="E90">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c t="s" r="F90">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="91">
       <c t="s" r="A91">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c t="s" r="B91">
         <v>22</v>
@@ -7379,13 +7742,13 @@
         <v>9</v>
       </c>
       <c t="s" r="E91">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c t="s" r="F91">
-        <v>348</v>
-      </c>
-      <c t="s" r="L91">
-        <v>380</v>
+        <v>361</v>
+      </c>
+      <c t="s" r="M91">
+        <v>393</v>
       </c>
     </row>
     <row r="92">
@@ -7399,7 +7762,7 @@
         <v>15</v>
       </c>
       <c t="s" r="F92">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="H92">
         <v>3</v>
@@ -7416,7 +7779,7 @@
         <v>16</v>
       </c>
       <c t="s" r="F93">
-        <v>381</v>
+        <v>394</v>
       </c>
     </row>
     <row r="94">
@@ -7430,7 +7793,7 @@
         <v>17</v>
       </c>
       <c t="s" r="F94">
-        <v>381</v>
+        <v>394</v>
       </c>
     </row>
     <row r="95">
@@ -7441,10 +7804,10 @@
         <v>4</v>
       </c>
       <c t="s" r="E95">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c t="s" r="F95">
-        <v>381</v>
+        <v>394</v>
       </c>
     </row>
     <row r="96">
@@ -7455,10 +7818,10 @@
         <v>5</v>
       </c>
       <c t="s" r="E96">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c t="s" r="F96">
-        <v>381</v>
+        <v>394</v>
       </c>
     </row>
     <row r="97">
@@ -7472,7 +7835,7 @@
         <v>16</v>
       </c>
       <c t="s" r="F97">
-        <v>381</v>
+        <v>394</v>
       </c>
     </row>
     <row r="98">
@@ -7486,7 +7849,7 @@
         <v>17</v>
       </c>
       <c t="s" r="F98">
-        <v>381</v>
+        <v>394</v>
       </c>
     </row>
     <row r="99">
@@ -7497,10 +7860,10 @@
         <v>8</v>
       </c>
       <c t="s" r="E99">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c t="s" r="F99">
-        <v>381</v>
+        <v>394</v>
       </c>
     </row>
     <row r="100">
@@ -7511,10 +7874,10 @@
         <v>9</v>
       </c>
       <c t="s" r="E100">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c t="s" r="F100">
-        <v>381</v>
+        <v>394</v>
       </c>
     </row>
     <row r="101">
@@ -7525,10 +7888,10 @@
         <v>1</v>
       </c>
       <c t="s" r="E101">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c t="s" r="F101">
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
     <row r="102">
@@ -7539,10 +7902,10 @@
         <v>1</v>
       </c>
       <c t="s" r="E102">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c t="s" r="F102">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="J102">
         <v>3</v>
@@ -7556,10 +7919,10 @@
         <v>2</v>
       </c>
       <c t="s" r="E103">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c t="s" r="F103">
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
     <row r="104">
@@ -7570,10 +7933,10 @@
         <v>2</v>
       </c>
       <c t="s" r="E104">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c t="s" r="F104">
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
     <row r="105">
@@ -7584,10 +7947,10 @@
         <v>3</v>
       </c>
       <c t="s" r="E105">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c t="s" r="F105">
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
     <row r="106">
@@ -7598,10 +7961,10 @@
         <v>3</v>
       </c>
       <c t="s" r="E106">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c t="s" r="F106">
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
     <row r="107">
@@ -7612,10 +7975,10 @@
         <v>4</v>
       </c>
       <c t="s" r="E107">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c t="s" r="F107">
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
     <row r="108">
@@ -7626,10 +7989,10 @@
         <v>4</v>
       </c>
       <c t="s" r="E108">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c t="s" r="F108">
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
     <row r="109">
@@ -7640,10 +8003,10 @@
         <v>5</v>
       </c>
       <c t="s" r="E109">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c t="s" r="F109">
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
     <row r="110">
@@ -7654,10 +8017,10 @@
         <v>5</v>
       </c>
       <c t="s" r="E110">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c t="s" r="F110">
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
     <row r="111">
@@ -7668,10 +8031,10 @@
         <v>6</v>
       </c>
       <c t="s" r="E111">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c t="s" r="F111">
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
     <row r="112">
@@ -7682,10 +8045,10 @@
         <v>6</v>
       </c>
       <c t="s" r="E112">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c t="s" r="F112">
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
     <row r="113">
@@ -7696,10 +8059,10 @@
         <v>7</v>
       </c>
       <c t="s" r="E113">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c t="s" r="F113">
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
     <row r="114">
@@ -7710,10 +8073,10 @@
         <v>7</v>
       </c>
       <c t="s" r="E114">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c t="s" r="F114">
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
     <row r="115">
@@ -7724,10 +8087,10 @@
         <v>8</v>
       </c>
       <c t="s" r="E115">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c t="s" r="F115">
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
     <row r="116">
@@ -7738,10 +8101,10 @@
         <v>8</v>
       </c>
       <c t="s" r="E116">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c t="s" r="F116">
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
     <row r="117">
@@ -7752,10 +8115,10 @@
         <v>9</v>
       </c>
       <c t="s" r="E117">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c t="s" r="F117">
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
     <row r="118">
@@ -7766,10 +8129,10 @@
         <v>9</v>
       </c>
       <c t="s" r="E118">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c t="s" r="F118">
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
     <row r="119">
@@ -7780,10 +8143,10 @@
         <v>1</v>
       </c>
       <c t="s" r="E119">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c t="s" r="F119">
-        <v>390</v>
+        <v>403</v>
       </c>
     </row>
     <row r="120">
@@ -7794,10 +8157,10 @@
         <v>2</v>
       </c>
       <c t="s" r="E120">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c t="s" r="F120">
-        <v>390</v>
+        <v>403</v>
       </c>
     </row>
     <row r="121">
@@ -7808,10 +8171,10 @@
         <v>3</v>
       </c>
       <c t="s" r="E121">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c t="s" r="F121">
-        <v>390</v>
+        <v>403</v>
       </c>
     </row>
     <row r="122">
@@ -7822,10 +8185,10 @@
         <v>4</v>
       </c>
       <c t="s" r="E122">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c t="s" r="F122">
-        <v>390</v>
+        <v>403</v>
       </c>
     </row>
     <row r="123">
@@ -7836,10 +8199,10 @@
         <v>5</v>
       </c>
       <c t="s" r="E123">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c t="s" r="F123">
-        <v>390</v>
+        <v>403</v>
       </c>
     </row>
     <row r="124">
@@ -7850,10 +8213,10 @@
         <v>6</v>
       </c>
       <c t="s" r="E124">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c t="s" r="F124">
-        <v>390</v>
+        <v>403</v>
       </c>
     </row>
     <row r="125">
@@ -7864,10 +8227,10 @@
         <v>7</v>
       </c>
       <c t="s" r="E125">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c t="s" r="F125">
-        <v>390</v>
+        <v>403</v>
       </c>
     </row>
     <row r="126">
@@ -7878,10 +8241,10 @@
         <v>8</v>
       </c>
       <c t="s" r="E126">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c t="s" r="F126">
-        <v>390</v>
+        <v>403</v>
       </c>
     </row>
     <row r="127">
@@ -7892,10 +8255,10 @@
         <v>9</v>
       </c>
       <c t="s" r="E127">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c t="s" r="F127">
-        <v>390</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -7920,205 +8283,205 @@
         <v>13</v>
       </c>
       <c t="s" s="8" r="D1">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c t="s" s="8" r="E1">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c t="s" s="8" r="F1">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c t="s" s="8" r="G1">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c t="s" s="8" r="H1">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c t="s" s="8" r="I1">
-        <v>398</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="4" r="A2">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c s="4" r="B2"/>
       <c s="4" r="C2"/>
       <c t="s" s="4" r="D2">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c s="4" r="E2">
         <v>5</v>
       </c>
       <c t="s" s="4" r="F2">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c t="s" s="4" r="G2">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c s="4" r="H2">
         <v>100</v>
       </c>
       <c t="s" s="4" r="I2">
-        <v>403</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="4" r="A3">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c s="4" r="B3"/>
       <c s="4" r="C3"/>
       <c t="s" s="4" r="D3">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c s="4" r="E3">
         <v>3</v>
       </c>
       <c t="s" s="4" r="F3">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c t="s" s="4" r="G3">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c s="4" r="H3">
         <v>0</v>
       </c>
       <c t="s" s="4" r="I3">
-        <v>407</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="4" r="A4">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c s="4" r="B4"/>
       <c s="4" r="C4"/>
       <c t="s" s="4" r="D4">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c s="4" r="E4">
         <v>2</v>
       </c>
       <c t="s" s="4" r="F4">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c t="s" s="4" r="G4">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c s="4" r="H4">
         <v>100</v>
       </c>
       <c t="s" s="4" r="I4">
-        <v>412</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5">
       <c t="s" s="4" r="A5">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c s="4" r="B5"/>
       <c s="4" r="C5"/>
       <c t="s" s="4" r="D5">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c s="4" r="E5">
         <v>6</v>
       </c>
       <c t="s" s="4" r="F5">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c t="s" s="4" r="G5">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c s="4" r="H5">
         <v>500</v>
       </c>
       <c t="s" s="4" r="I5">
-        <v>417</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6">
       <c t="s" r="A6">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c t="s" r="D6">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c t="s" r="F6">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c t="s" r="G6">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="H6">
         <v>100</v>
       </c>
       <c t="s" r="I6">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7">
       <c t="s" r="A7">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c t="s" r="D7">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c t="s" r="F7">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c t="s" r="G7">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="H7">
         <v>200</v>
       </c>
       <c t="s" r="I7">
-        <v>407</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8">
       <c t="s" r="A8">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c t="s" r="F8">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c t="s" r="G8">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="H8">
         <v>100</v>
       </c>
       <c t="s" r="I8">
-        <v>429</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9">
       <c t="s" r="A9">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
       <c t="s" r="F9">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c t="s" r="G9">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c t="s" r="I9">
-        <v>433</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10">
@@ -8143,38 +8506,38 @@
     </row>
     <row r="14">
       <c t="s" r="A14">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c t="s" r="D14">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c t="s" r="I14">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15">
       <c t="s" r="A15">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c t="s" r="D15">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c t="s" r="I15">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c t="s" r="A16">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c t="s" r="D16">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -8185,12 +8548,12 @@
     </row>
     <row r="17">
       <c t="s" s="4" r="A17">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c s="4" r="B17"/>
       <c s="4" r="C17"/>
       <c t="s" s="4" r="D17">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c s="4" r="E17">
         <v>4</v>
@@ -8199,48 +8562,48 @@
       <c s="4" r="G17"/>
       <c s="4" r="H17"/>
       <c t="s" s="4" r="I17">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
       <c t="s" r="A18">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c t="s" r="D18">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="E18">
         <v>5</v>
       </c>
       <c t="s" r="I18">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c t="s" r="A19">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c t="s" r="D19">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="E19">
         <v>6</v>
       </c>
       <c t="s" r="F19">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c t="s" r="I19">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c t="s" s="4" r="A20">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c s="4" r="B20"/>
       <c s="4" r="C20"/>
       <c t="s" s="4" r="D20">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c s="4" r="E20">
         <v>7</v>
@@ -8249,94 +8612,94 @@
       <c s="4" r="G20"/>
       <c s="4" r="H20"/>
       <c t="s" s="4" r="I20">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c t="s" r="A21">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c t="s" r="D21">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="E21">
         <v>8</v>
       </c>
       <c t="s" r="I21">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
       <c t="s" r="A22">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c t="s" r="D22">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="E22">
         <v>9</v>
       </c>
       <c t="s" r="I22">
-        <v>446</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23">
       <c t="s" r="A23">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c t="s" r="D23">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="E23">
         <v>10</v>
       </c>
       <c t="s" r="I23">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
       <c t="s" s="4" r="A24">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c s="4" r="B24"/>
       <c s="4" r="C24"/>
       <c t="s" s="4" r="D24">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c s="4" r="E24">
         <v>1</v>
       </c>
       <c t="s" s="4" r="F24">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c t="s" s="4" r="G24">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c s="4" r="H24"/>
       <c t="s" s="4" r="I24">
-        <v>407</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25">
       <c t="s" r="A25">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c t="s" r="D25">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c t="s" r="I25">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
       <c t="s" r="A26">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c t="s" r="D26">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -8347,24 +8710,24 @@
     </row>
     <row r="27">
       <c t="s" r="A27">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c t="s" r="D27">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="E27">
         <v>4</v>
       </c>
       <c t="s" r="I27">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c t="s" r="A28">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c t="s" r="D28">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -8375,138 +8738,138 @@
     </row>
     <row r="29">
       <c t="s" r="A29">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c t="s" r="D29">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="E29">
         <v>6</v>
       </c>
       <c t="s" r="G29">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c t="s" r="I29">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30">
       <c t="s" r="D30">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="E30">
         <v>7</v>
       </c>
       <c t="s" r="I30">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c t="s" r="A31">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c t="s" r="D31">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="E31">
         <v>8</v>
       </c>
       <c t="s" r="F31">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c t="s" r="G31">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c t="s" r="I31">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32">
       <c t="s" r="A32">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c t="s" r="D32">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="E32">
         <v>9</v>
       </c>
       <c t="s" r="F32">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c t="s" r="I32">
-        <v>463</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33">
       <c t="s" r="A33">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c t="s" r="D33">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="E33">
         <v>10</v>
       </c>
       <c t="s" r="F33">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c t="s" r="G33">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="H33">
         <v>500</v>
       </c>
       <c t="s" r="I33">
-        <v>467</v>
+        <v>480</v>
       </c>
     </row>
     <row r="34">
       <c t="s" r="A34">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c t="s" r="D34">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c t="s" r="F34">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="H34">
         <v>200</v>
       </c>
       <c t="s" r="I34">
-        <v>412</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35">
       <c t="s" r="A35">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c t="s" r="D35">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="E35">
         <v>2</v>
       </c>
       <c t="s" r="F35">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c t="s" r="G35">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="H35">
         <v>200</v>
       </c>
       <c t="s" r="I35">
-        <v>412</v>
+        <v>425</v>
       </c>
     </row>
     <row r="36">
       <c t="s" r="D36">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -8514,28 +8877,28 @@
     </row>
     <row r="37">
       <c t="s" s="1" r="A37">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c s="1" r="B37"/>
       <c s="1" r="C37"/>
       <c t="s" s="1" r="D37">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c s="1" r="E37">
         <v>4</v>
       </c>
       <c s="1" r="F37"/>
       <c t="s" s="1" r="G37">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c t="s" s="1" r="H37">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c s="1" r="I37"/>
     </row>
     <row r="38">
       <c t="s" r="D38">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="E38">
         <v>5</v>
@@ -8543,7 +8906,7 @@
     </row>
     <row r="39">
       <c t="s" r="D39">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="E39">
         <v>6</v>
@@ -8551,7 +8914,7 @@
     </row>
     <row r="40">
       <c t="s" r="D40">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="E40">
         <v>7</v>
@@ -8559,7 +8922,7 @@
     </row>
     <row r="41">
       <c t="s" r="D41">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="E41">
         <v>8</v>
@@ -8567,7 +8930,7 @@
     </row>
     <row r="42">
       <c t="s" r="D42">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="E42">
         <v>9</v>
@@ -8575,7 +8938,7 @@
     </row>
     <row r="43">
       <c t="s" r="D43">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="E43">
         <v>10</v>
@@ -8583,7 +8946,7 @@
     </row>
     <row r="44">
       <c t="s" r="D44">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -8591,7 +8954,7 @@
     </row>
     <row r="45">
       <c t="s" r="D45">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -8599,7 +8962,7 @@
     </row>
     <row r="46">
       <c t="s" r="D46">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -8607,7 +8970,7 @@
     </row>
     <row r="47">
       <c t="s" r="D47">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="E47">
         <v>4</v>
@@ -8615,7 +8978,7 @@
     </row>
     <row r="48">
       <c t="s" r="D48">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="E48">
         <v>5</v>
@@ -8623,7 +8986,7 @@
     </row>
     <row r="49">
       <c t="s" r="D49">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="E49">
         <v>6</v>
@@ -8631,7 +8994,7 @@
     </row>
     <row r="50">
       <c t="s" r="D50">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="E50">
         <v>7</v>
@@ -8639,7 +9002,7 @@
     </row>
     <row r="51">
       <c t="s" r="D51">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="E51">
         <v>8</v>
@@ -8647,7 +9010,7 @@
     </row>
     <row r="52">
       <c t="s" r="D52">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="E52">
         <v>9</v>
@@ -8655,7 +9018,7 @@
     </row>
     <row r="53">
       <c t="s" r="D53">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="E53">
         <v>10</v>
@@ -8663,7 +9026,7 @@
     </row>
     <row r="54">
       <c t="s" r="D54">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -8671,7 +9034,7 @@
     </row>
     <row r="55">
       <c t="s" r="D55">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -8679,7 +9042,7 @@
     </row>
     <row r="56">
       <c t="s" r="D56">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="E56">
         <v>3</v>
@@ -8687,7 +9050,7 @@
     </row>
     <row r="57">
       <c t="s" r="D57">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="E57">
         <v>4</v>
@@ -8695,7 +9058,7 @@
     </row>
     <row r="58">
       <c t="s" r="D58">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="E58">
         <v>5</v>
@@ -8703,7 +9066,7 @@
     </row>
     <row r="59">
       <c t="s" r="D59">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="E59">
         <v>6</v>
@@ -8711,7 +9074,7 @@
     </row>
     <row r="60">
       <c t="s" r="D60">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="E60">
         <v>7</v>
@@ -8719,7 +9082,7 @@
     </row>
     <row r="61">
       <c t="s" r="D61">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="E61">
         <v>8</v>
@@ -8727,7 +9090,7 @@
     </row>
     <row r="62">
       <c t="s" r="D62">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="E62">
         <v>9</v>
@@ -8735,7 +9098,7 @@
     </row>
     <row r="63">
       <c t="s" r="D63">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="E63">
         <v>10</v>
@@ -8746,7 +9109,7 @@
       <c s="5" r="B64"/>
       <c s="5" r="C64"/>
       <c t="s" s="5" r="D64">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c s="5" r="E64">
         <v>1</v>
@@ -8761,7 +9124,7 @@
       <c s="5" r="B65"/>
       <c s="5" r="C65"/>
       <c t="s" s="5" r="D65">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c s="5" r="E65">
         <v>2</v>
@@ -8776,7 +9139,7 @@
       <c s="5" r="B66"/>
       <c s="5" r="C66"/>
       <c t="s" s="5" r="D66">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c s="5" r="E66">
         <v>3</v>
@@ -8791,7 +9154,7 @@
       <c s="5" r="B67"/>
       <c s="5" r="C67"/>
       <c t="s" s="5" r="D67">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c s="5" r="E67">
         <v>4</v>
@@ -8806,7 +9169,7 @@
       <c s="5" r="B68"/>
       <c s="5" r="C68"/>
       <c t="s" s="5" r="D68">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c s="5" r="E68">
         <v>5</v>
@@ -8821,7 +9184,7 @@
       <c s="5" r="B69"/>
       <c s="5" r="C69"/>
       <c t="s" s="5" r="D69">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c s="5" r="E69">
         <v>6</v>
@@ -8836,7 +9199,7 @@
       <c s="5" r="B70"/>
       <c s="5" r="C70"/>
       <c t="s" s="5" r="D70">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c s="5" r="E70">
         <v>7</v>
@@ -8851,7 +9214,7 @@
       <c s="5" r="B71"/>
       <c s="5" r="C71"/>
       <c t="s" s="5" r="D71">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c s="5" r="E71">
         <v>8</v>
@@ -8866,7 +9229,7 @@
       <c s="5" r="B72"/>
       <c s="5" r="C72"/>
       <c t="s" s="5" r="D72">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c s="5" r="E72">
         <v>9</v>
@@ -8881,7 +9244,7 @@
       <c s="5" r="B73"/>
       <c s="5" r="C73"/>
       <c t="s" s="5" r="D73">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c s="5" r="E73">
         <v>10</v>
@@ -8896,7 +9259,7 @@
       <c s="5" r="B74"/>
       <c s="5" r="C74"/>
       <c t="s" s="5" r="D74">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c s="5" r="E74">
         <v>1</v>
@@ -8911,7 +9274,7 @@
       <c s="5" r="B75"/>
       <c s="5" r="C75"/>
       <c t="s" s="5" r="D75">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c s="5" r="E75">
         <v>2</v>
@@ -8926,7 +9289,7 @@
       <c s="5" r="B76"/>
       <c s="5" r="C76"/>
       <c t="s" s="5" r="D76">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c s="5" r="E76">
         <v>3</v>
@@ -8941,7 +9304,7 @@
       <c s="5" r="B77"/>
       <c s="5" r="C77"/>
       <c t="s" s="5" r="D77">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c s="5" r="E77">
         <v>4</v>
@@ -8956,7 +9319,7 @@
       <c s="5" r="B78"/>
       <c s="5" r="C78"/>
       <c t="s" s="5" r="D78">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c s="5" r="E78">
         <v>5</v>
@@ -8971,7 +9334,7 @@
       <c s="5" r="B79"/>
       <c s="5" r="C79"/>
       <c t="s" s="5" r="D79">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c s="5" r="E79">
         <v>6</v>
@@ -8986,7 +9349,7 @@
       <c s="5" r="B80"/>
       <c s="5" r="C80"/>
       <c t="s" s="5" r="D80">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c s="5" r="E80">
         <v>7</v>
@@ -9001,7 +9364,7 @@
       <c s="5" r="B81"/>
       <c s="5" r="C81"/>
       <c t="s" s="5" r="D81">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c s="5" r="E81">
         <v>8</v>
@@ -9016,7 +9379,7 @@
       <c s="5" r="B82"/>
       <c s="5" r="C82"/>
       <c t="s" s="5" r="D82">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c s="5" r="E82">
         <v>9</v>
@@ -9031,7 +9394,7 @@
       <c s="5" r="B83"/>
       <c s="5" r="C83"/>
       <c t="s" s="5" r="D83">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c s="5" r="E83">
         <v>10</v>
@@ -9056,7 +9419,7 @@
     <col min="2" customWidth="1" max="2" width="4.71"/>
     <col min="3" customWidth="1" max="3" width="6.57"/>
     <col min="4" customWidth="1" max="4" width="16.29"/>
-    <col min="5" customWidth="1" max="6" width="14.71"/>
+    <col min="8" customWidth="1" max="9" width="14.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9070,1272 +9433,1408 @@
         <v>13</v>
       </c>
       <c t="s" s="8" r="D1">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c t="s" s="8" r="E1">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c t="s" s="8" r="F1">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c t="s" s="8" r="G1">
+        <v>496</v>
+      </c>
+      <c t="s" s="8" r="H1">
+        <v>303</v>
+      </c>
+      <c t="s" s="8" r="I1">
+        <v>497</v>
+      </c>
+      <c t="s" s="8" r="J1">
         <v>18</v>
       </c>
-      <c t="s" s="8" r="H1">
+      <c t="s" s="8" r="K1">
         <v>19</v>
       </c>
-      <c t="s" s="8" r="I1">
+      <c t="s" s="8" r="L1">
         <v>20</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="4" r="A2">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c s="4" r="B2"/>
       <c s="4" r="C2"/>
       <c t="s" s="4" r="D2">
-        <v>484</v>
-      </c>
-      <c t="s" s="4" r="E2">
-        <v>429</v>
-      </c>
-      <c s="4" r="F2">
+        <v>499</v>
+      </c>
+      <c s="4" r="E2"/>
+      <c s="4" r="F2"/>
+      <c s="4" r="G2"/>
+      <c t="s" s="4" r="H2">
+        <v>442</v>
+      </c>
+      <c s="4" r="I2">
         <v>1</v>
       </c>
-      <c t="s" s="4" r="G2">
-        <v>485</v>
-      </c>
-      <c t="s" s="4" r="H2">
-        <v>486</v>
-      </c>
-      <c s="4" r="I2"/>
-      <c s="4" r="J2"/>
+      <c t="s" s="4" r="J2">
+        <v>500</v>
+      </c>
+      <c t="s" s="4" r="K2">
+        <v>501</v>
+      </c>
+      <c s="4" r="L2"/>
+      <c s="4" r="M2"/>
     </row>
     <row r="3">
       <c t="s" r="A3">
-        <v>487</v>
-      </c>
-      <c t="s" r="D3">
-        <v>488</v>
-      </c>
-      <c t="s" r="E3">
-        <v>403</v>
-      </c>
-      <c r="F3">
+        <v>502</v>
+      </c>
+      <c t="s" s="4" r="D3">
+        <v>503</v>
+      </c>
+      <c t="s" r="H3">
+        <v>416</v>
+      </c>
+      <c r="I3">
         <v>5</v>
       </c>
-      <c t="s" r="G3">
-        <v>489</v>
-      </c>
-      <c t="s" r="H3">
-        <v>490</v>
+      <c t="s" r="J3">
+        <v>504</v>
+      </c>
+      <c t="s" r="K3">
+        <v>505</v>
       </c>
     </row>
     <row r="4">
       <c t="s" r="A4">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c t="s" r="D4">
-        <v>492</v>
-      </c>
-      <c t="s" r="E4">
-        <v>407</v>
-      </c>
-      <c r="F4">
+        <v>507</v>
+      </c>
+      <c t="s" r="H4">
+        <v>420</v>
+      </c>
+      <c r="I4">
         <v>7</v>
       </c>
-      <c t="s" r="G4">
-        <v>493</v>
-      </c>
-      <c t="s" r="H4">
-        <v>494</v>
+      <c t="s" r="J4">
+        <v>508</v>
+      </c>
+      <c t="s" r="K4">
+        <v>509</v>
       </c>
     </row>
     <row r="5">
       <c t="s" r="A5">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c t="s" r="D5">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c t="s" r="E5">
-        <v>412</v>
-      </c>
-      <c r="F5">
+        <v>511</v>
+      </c>
+      <c t="s" r="H5">
+        <v>425</v>
+      </c>
+      <c r="I5">
         <v>4</v>
       </c>
-      <c t="s" r="G5">
-        <v>497</v>
-      </c>
       <c t="s" r="J5">
-        <v>498</v>
+        <v>512</v>
+      </c>
+      <c t="s" r="M5">
+        <v>513</v>
       </c>
     </row>
     <row r="6">
       <c t="s" r="A6">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c t="s" r="D6">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c t="s" r="E6">
-        <v>501</v>
-      </c>
-      <c r="F6">
+        <v>511</v>
+      </c>
+      <c t="s" r="F6">
+        <v>503</v>
+      </c>
+      <c t="s" r="G6">
+        <v>516</v>
+      </c>
+      <c t="s" r="H6">
+        <v>517</v>
+      </c>
+      <c r="I6">
         <v>5</v>
       </c>
-      <c t="s" r="G6">
-        <v>502</v>
+      <c t="s" r="J6">
+        <v>518</v>
       </c>
     </row>
     <row r="7">
       <c t="s" r="A7">
-        <v>503</v>
-      </c>
-      <c t="s" r="E7">
-        <v>407</v>
-      </c>
-      <c t="s" r="G7">
-        <v>504</v>
+        <v>519</v>
+      </c>
+      <c t="s" r="D7">
+        <v>516</v>
       </c>
       <c t="s" r="H7">
-        <v>505</v>
-      </c>
-      <c t="s" r="I7">
-        <v>506</v>
+        <v>420</v>
+      </c>
+      <c t="s" r="J7">
+        <v>520</v>
+      </c>
+      <c t="s" r="K7">
+        <v>521</v>
+      </c>
+      <c t="s" r="L7">
+        <v>522</v>
       </c>
     </row>
     <row r="8">
       <c t="s" r="A8">
+        <v>523</v>
+      </c>
+      <c t="s" r="D8">
+        <v>503</v>
+      </c>
+      <c t="s" r="E8">
+        <v>516</v>
+      </c>
+      <c t="s" r="F8">
+        <v>524</v>
+      </c>
+      <c t="s" r="G8">
         <v>507</v>
       </c>
-      <c t="s" r="D8">
-        <v>508</v>
-      </c>
-      <c t="s" r="E8">
-        <v>501</v>
-      </c>
-      <c r="F8">
+      <c t="s" r="H8">
+        <v>517</v>
+      </c>
+      <c r="I8">
         <v>7</v>
       </c>
-      <c t="s" r="G8">
-        <v>509</v>
-      </c>
-      <c t="s" r="H8">
-        <v>510</v>
+      <c t="s" r="J8">
+        <v>525</v>
+      </c>
+      <c t="s" r="K8">
+        <v>526</v>
       </c>
     </row>
     <row r="9">
       <c t="s" s="4" r="A9">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c s="4" r="B9"/>
       <c s="4" r="C9"/>
-      <c t="s" s="4" r="D9">
-        <v>512</v>
-      </c>
-      <c t="s" s="4" r="E9">
-        <v>422</v>
-      </c>
-      <c s="4" r="F9">
+      <c t="s" r="D9">
+        <v>516</v>
+      </c>
+      <c s="4" r="E9"/>
+      <c s="4" r="F9"/>
+      <c s="4" r="G9"/>
+      <c t="s" s="4" r="H9">
+        <v>435</v>
+      </c>
+      <c s="4" r="I9">
         <v>6</v>
       </c>
-      <c t="s" s="4" r="G9">
-        <v>513</v>
-      </c>
-      <c t="s" s="3" r="H9">
-        <v>514</v>
-      </c>
-      <c s="4" r="I9"/>
       <c t="s" s="4" r="J9">
-        <v>515</v>
+        <v>528</v>
+      </c>
+      <c t="s" s="3" r="K9">
+        <v>529</v>
+      </c>
+      <c s="4" r="L9"/>
+      <c t="s" s="4" r="M9">
+        <v>530</v>
       </c>
     </row>
     <row r="10">
       <c t="s" r="A10">
-        <v>516</v>
-      </c>
-      <c t="s" r="D10">
-        <v>484</v>
-      </c>
-      <c t="s" r="E10">
-        <v>403</v>
-      </c>
-      <c r="F10">
+        <v>531</v>
+      </c>
+      <c t="s" s="4" r="D10">
+        <v>499</v>
+      </c>
+      <c t="s" r="H10">
+        <v>416</v>
+      </c>
+      <c r="I10">
         <v>5</v>
       </c>
-      <c t="s" r="G10">
-        <v>517</v>
-      </c>
-      <c t="s" r="H10">
-        <v>518</v>
-      </c>
       <c t="s" r="J10">
-        <v>519</v>
+        <v>532</v>
+      </c>
+      <c t="s" r="K10">
+        <v>533</v>
+      </c>
+      <c t="s" r="M10">
+        <v>534</v>
       </c>
     </row>
     <row r="11">
       <c t="s" r="A11">
-        <v>520</v>
-      </c>
-      <c t="s" r="D11">
-        <v>521</v>
-      </c>
-      <c t="s" r="E11">
-        <v>429</v>
-      </c>
-      <c t="s" r="F11">
-        <v>522</v>
-      </c>
-      <c t="s" r="G11">
-        <v>523</v>
+        <v>535</v>
+      </c>
+      <c t="s" s="4" r="D11">
+        <v>515</v>
       </c>
       <c t="s" r="H11">
-        <v>524</v>
+        <v>442</v>
+      </c>
+      <c t="s" r="I11">
+        <v>536</v>
+      </c>
+      <c t="s" r="J11">
+        <v>537</v>
+      </c>
+      <c t="s" r="K11">
+        <v>538</v>
       </c>
     </row>
     <row r="12">
       <c t="s" r="A12">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c t="s" r="D12">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c t="s" r="E12">
-        <v>412</v>
-      </c>
-      <c r="F12">
+        <v>524</v>
+      </c>
+      <c t="s" r="H12">
+        <v>425</v>
+      </c>
+      <c r="I12">
         <v>4</v>
       </c>
-      <c t="s" r="G12">
-        <v>527</v>
-      </c>
       <c t="s" r="J12">
-        <v>528</v>
+        <v>540</v>
+      </c>
+      <c t="s" r="M12">
+        <v>541</v>
       </c>
     </row>
     <row r="13">
       <c t="s" r="A13">
-        <v>529</v>
-      </c>
-      <c t="s" r="E13">
-        <v>429</v>
-      </c>
-      <c t="s" r="F13">
-        <v>522</v>
-      </c>
-      <c t="s" r="G13">
-        <v>530</v>
+        <v>542</v>
+      </c>
+      <c t="s" r="H13">
+        <v>442</v>
+      </c>
+      <c t="s" r="I13">
+        <v>536</v>
+      </c>
+      <c t="s" r="J13">
+        <v>543</v>
       </c>
     </row>
     <row r="14">
       <c t="s" s="4" r="A14">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c s="4" r="B14"/>
       <c s="4" r="C14"/>
-      <c t="s" s="4" r="D14">
-        <v>532</v>
-      </c>
-      <c t="s" s="4" r="E14">
-        <v>403</v>
-      </c>
-      <c s="4" r="F14">
+      <c t="s" r="D14">
+        <v>545</v>
+      </c>
+      <c s="4" r="E14"/>
+      <c s="4" r="F14"/>
+      <c s="4" r="G14"/>
+      <c t="s" s="4" r="H14">
+        <v>416</v>
+      </c>
+      <c s="4" r="I14">
         <v>3</v>
       </c>
-      <c t="s" s="4" r="G14">
-        <v>533</v>
-      </c>
-      <c s="4" r="H14"/>
-      <c s="4" r="I14"/>
-      <c s="4" r="J14"/>
+      <c t="s" s="4" r="J14">
+        <v>546</v>
+      </c>
+      <c s="4" r="K14"/>
+      <c s="4" r="L14"/>
+      <c s="4" r="M14"/>
     </row>
     <row r="15">
       <c t="s" r="A15">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c t="s" r="D15">
-        <v>535</v>
-      </c>
-      <c t="s" r="E15">
-        <v>429</v>
-      </c>
-      <c t="s" r="F15">
-        <v>522</v>
-      </c>
-      <c t="s" r="G15">
+        <v>548</v>
+      </c>
+      <c t="s" r="H15">
+        <v>442</v>
+      </c>
+      <c t="s" r="I15">
         <v>536</v>
       </c>
-      <c t="s" r="H15">
-        <v>537</v>
-      </c>
-      <c t="s" r="I15">
-        <v>538</v>
+      <c t="s" r="J15">
+        <v>549</v>
+      </c>
+      <c t="s" r="K15">
+        <v>550</v>
+      </c>
+      <c t="s" r="L15">
+        <v>551</v>
       </c>
     </row>
     <row r="16">
       <c t="s" s="4" r="A16">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c s="4" r="B16"/>
       <c s="4" r="C16"/>
       <c t="s" s="4" r="D16">
-        <v>535</v>
-      </c>
-      <c t="s" s="4" r="E16">
-        <v>429</v>
-      </c>
-      <c s="4" r="F16">
+        <v>548</v>
+      </c>
+      <c s="4" r="E16"/>
+      <c s="4" r="F16"/>
+      <c s="4" r="G16"/>
+      <c t="s" s="4" r="H16">
+        <v>442</v>
+      </c>
+      <c s="4" r="I16">
         <v>1</v>
       </c>
-      <c t="s" s="4" r="G16">
-        <v>540</v>
-      </c>
-      <c t="s" s="4" r="H16">
-        <v>541</v>
-      </c>
-      <c s="4" r="I16"/>
-      <c s="4" r="J16"/>
+      <c t="s" s="4" r="J16">
+        <v>553</v>
+      </c>
+      <c t="s" s="4" r="K16">
+        <v>554</v>
+      </c>
+      <c s="4" r="L16"/>
+      <c s="4" r="M16"/>
     </row>
     <row r="17">
       <c t="s" s="4" r="A17">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c s="4" r="B17"/>
       <c s="4" r="C17"/>
-      <c t="s" s="4" r="D17">
-        <v>543</v>
-      </c>
-      <c t="s" s="4" r="E17">
-        <v>412</v>
-      </c>
-      <c s="4" r="F17">
+      <c t="s" r="D17">
+        <v>503</v>
+      </c>
+      <c t="s" r="E17">
+        <v>516</v>
+      </c>
+      <c s="4" r="F17"/>
+      <c s="4" r="G17"/>
+      <c t="s" s="4" r="H17">
+        <v>425</v>
+      </c>
+      <c s="4" r="I17">
         <v>5</v>
       </c>
-      <c t="s" s="4" r="G17">
-        <v>544</v>
-      </c>
-      <c s="4" r="H17"/>
-      <c s="4" r="I17"/>
-      <c s="4" r="J17"/>
+      <c t="s" s="4" r="J17">
+        <v>556</v>
+      </c>
+      <c s="4" r="K17"/>
+      <c s="4" r="L17"/>
+      <c s="4" r="M17"/>
     </row>
     <row r="18">
       <c t="s" r="A18">
+        <v>557</v>
+      </c>
+      <c t="s" r="D18">
         <v>545</v>
       </c>
-      <c t="s" r="D18">
-        <v>532</v>
-      </c>
-      <c t="s" r="E18">
-        <v>407</v>
-      </c>
-      <c r="F18">
+      <c t="s" r="H18">
+        <v>420</v>
+      </c>
+      <c r="I18">
         <v>8</v>
       </c>
-      <c t="s" r="G18">
-        <v>546</v>
-      </c>
-      <c t="s" r="H18">
-        <v>547</v>
+      <c t="s" r="J18">
+        <v>558</v>
+      </c>
+      <c t="s" r="K18">
+        <v>559</v>
       </c>
     </row>
     <row r="19">
       <c t="s" r="A19">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c t="s" r="D19">
-        <v>549</v>
+        <v>516</v>
       </c>
       <c t="s" r="E19">
-        <v>412</v>
-      </c>
-      <c r="F19">
+        <v>507</v>
+      </c>
+      <c t="s" r="H19">
+        <v>425</v>
+      </c>
+      <c r="I19">
         <v>8</v>
       </c>
-      <c t="s" r="G19">
-        <v>550</v>
+      <c t="s" r="J19">
+        <v>561</v>
       </c>
     </row>
     <row r="20">
       <c t="s" r="A20">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c t="s" r="D20">
-        <v>512</v>
-      </c>
-      <c t="s" r="E20">
-        <v>407</v>
-      </c>
-      <c r="F20">
+        <v>516</v>
+      </c>
+      <c t="s" r="H20">
+        <v>420</v>
+      </c>
+      <c r="I20">
         <v>5</v>
       </c>
-      <c t="s" r="G20">
-        <v>552</v>
-      </c>
-      <c t="s" r="H20">
-        <v>553</v>
-      </c>
-      <c t="s" r="I20">
-        <v>554</v>
+      <c t="s" r="J20">
+        <v>563</v>
+      </c>
+      <c t="s" r="K20">
+        <v>564</v>
+      </c>
+      <c t="s" r="L20">
+        <v>565</v>
       </c>
     </row>
     <row r="21">
       <c t="s" r="A21">
-        <v>555</v>
-      </c>
-      <c t="s" r="E21">
-        <v>403</v>
-      </c>
-      <c t="s" r="G21">
-        <v>556</v>
+        <v>566</v>
+      </c>
+      <c t="s" r="H21">
+        <v>416</v>
+      </c>
+      <c t="s" r="J21">
+        <v>567</v>
       </c>
     </row>
     <row r="22">
       <c t="s" r="A22">
-        <v>557</v>
-      </c>
-      <c t="s" r="E22">
-        <v>429</v>
-      </c>
-      <c t="s" r="F22">
-        <v>522</v>
-      </c>
-      <c t="s" r="G22">
-        <v>558</v>
+        <v>568</v>
+      </c>
+      <c t="s" r="H22">
+        <v>442</v>
+      </c>
+      <c t="s" r="I22">
+        <v>536</v>
+      </c>
+      <c t="s" r="J22">
+        <v>569</v>
       </c>
     </row>
     <row r="23">
       <c t="s" r="A23">
-        <v>559</v>
-      </c>
-      <c t="s" r="E23">
-        <v>407</v>
-      </c>
-      <c t="s" r="G23">
-        <v>560</v>
+        <v>570</v>
+      </c>
+      <c t="s" r="H23">
+        <v>420</v>
+      </c>
+      <c t="s" r="J23">
+        <v>571</v>
       </c>
     </row>
     <row r="24">
       <c t="s" r="A24">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c t="s" r="D24">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c t="s" r="E24">
-        <v>412</v>
-      </c>
-      <c r="F24">
+        <v>511</v>
+      </c>
+      <c t="s" r="H24">
+        <v>425</v>
+      </c>
+      <c r="I24">
         <v>3</v>
       </c>
-      <c t="s" r="G24">
-        <v>563</v>
+      <c t="s" r="J24">
+        <v>573</v>
       </c>
     </row>
     <row r="25">
       <c t="s" r="A25">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c t="s" r="D25">
-        <v>564</v>
+        <v>524</v>
       </c>
       <c t="s" r="E25">
-        <v>501</v>
-      </c>
-      <c r="F25">
+        <v>507</v>
+      </c>
+      <c t="s" r="F25">
+        <v>545</v>
+      </c>
+      <c t="s" r="G25">
+        <v>574</v>
+      </c>
+      <c t="s" r="H25">
+        <v>517</v>
+      </c>
+      <c r="I25">
         <v>9</v>
       </c>
-      <c t="s" r="G25">
-        <v>565</v>
+      <c t="s" r="J25">
+        <v>575</v>
       </c>
     </row>
     <row r="26">
       <c t="s" r="A26">
-        <v>566</v>
-      </c>
-      <c t="s" r="D26">
-        <v>567</v>
-      </c>
-      <c t="s" r="E26">
-        <v>429</v>
-      </c>
-      <c r="F26">
+        <v>576</v>
+      </c>
+      <c t="s" s="4" r="D26">
+        <v>515</v>
+      </c>
+      <c t="s" s="4" r="E26">
+        <v>516</v>
+      </c>
+      <c t="s" r="H26">
+        <v>442</v>
+      </c>
+      <c r="I26">
         <v>5</v>
       </c>
-      <c t="s" r="G26">
-        <v>568</v>
-      </c>
       <c t="s" r="J26">
-        <v>569</v>
+        <v>577</v>
+      </c>
+      <c t="s" r="M26">
+        <v>578</v>
       </c>
     </row>
     <row r="27">
       <c t="s" r="A27">
-        <v>570</v>
-      </c>
-      <c t="s" r="E27">
-        <v>429</v>
-      </c>
-      <c t="s" r="F27">
-        <v>522</v>
-      </c>
-      <c t="s" r="G27">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c t="s" r="H27">
-        <v>572</v>
+        <v>442</v>
+      </c>
+      <c t="s" r="I27">
+        <v>536</v>
+      </c>
+      <c t="s" r="J27">
+        <v>580</v>
+      </c>
+      <c t="s" r="K27">
+        <v>581</v>
       </c>
     </row>
     <row r="28">
       <c t="s" r="A28">
-        <v>573</v>
-      </c>
-      <c t="s" r="D28">
-        <v>574</v>
-      </c>
-      <c t="s" r="E28">
-        <v>412</v>
-      </c>
-      <c r="F28">
+        <v>582</v>
+      </c>
+      <c t="s" s="4" r="D28">
+        <v>515</v>
+      </c>
+      <c t="s" s="4" r="E28">
+        <v>503</v>
+      </c>
+      <c t="s" r="H28">
+        <v>425</v>
+      </c>
+      <c r="I28">
         <v>4</v>
       </c>
-      <c t="s" r="G28">
-        <v>575</v>
+      <c t="s" r="J28">
+        <v>583</v>
       </c>
     </row>
     <row r="29">
       <c t="s" r="A29">
-        <v>576</v>
-      </c>
-      <c t="s" r="E29">
-        <v>403</v>
-      </c>
-      <c t="s" r="G29">
-        <v>577</v>
+        <v>584</v>
+      </c>
+      <c t="s" r="H29">
+        <v>416</v>
+      </c>
+      <c t="s" r="J29">
+        <v>585</v>
       </c>
     </row>
     <row r="30">
       <c t="s" r="A30">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c t="s" r="D30">
-        <v>579</v>
+        <v>524</v>
       </c>
       <c t="s" r="E30">
-        <v>412</v>
-      </c>
-      <c r="F30">
+        <v>507</v>
+      </c>
+      <c t="s" r="H30">
+        <v>425</v>
+      </c>
+      <c r="I30">
         <v>7</v>
       </c>
-      <c t="s" r="G30">
-        <v>580</v>
-      </c>
-      <c t="s" r="H30">
-        <v>581</v>
+      <c t="s" r="J30">
+        <v>587</v>
+      </c>
+      <c t="s" r="K30">
+        <v>588</v>
       </c>
     </row>
     <row r="31">
       <c t="s" r="A31">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c t="s" r="D31">
-        <v>583</v>
-      </c>
-      <c t="s" r="E31">
-        <v>407</v>
-      </c>
-      <c r="F31">
+        <v>548</v>
+      </c>
+      <c t="s" r="H31">
+        <v>420</v>
+      </c>
+      <c r="I31">
         <v>8</v>
       </c>
-      <c t="s" r="G31">
-        <v>584</v>
-      </c>
-      <c t="s" r="H31">
-        <v>585</v>
-      </c>
-      <c t="s" r="I31">
-        <v>586</v>
+      <c t="s" r="J31">
+        <v>590</v>
+      </c>
+      <c t="s" r="K31">
+        <v>591</v>
+      </c>
+      <c t="s" r="L31">
+        <v>592</v>
       </c>
     </row>
     <row r="32">
       <c t="s" r="A32">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c t="s" r="D32">
-        <v>588</v>
-      </c>
-      <c t="s" r="E32">
-        <v>407</v>
-      </c>
-      <c r="F32">
+        <v>574</v>
+      </c>
+      <c t="s" r="H32">
+        <v>420</v>
+      </c>
+      <c r="I32">
         <v>9</v>
       </c>
-      <c t="s" r="G32">
-        <v>589</v>
-      </c>
-      <c t="s" r="H32">
-        <v>590</v>
+      <c t="s" r="J32">
+        <v>594</v>
+      </c>
+      <c t="s" r="K32">
+        <v>595</v>
       </c>
     </row>
     <row r="33">
       <c t="s" r="A33">
-        <v>591</v>
-      </c>
-      <c t="s" r="E33">
-        <v>407</v>
-      </c>
-      <c t="s" r="G33">
-        <v>592</v>
+        <v>596</v>
+      </c>
+      <c t="s" r="H33">
+        <v>420</v>
+      </c>
+      <c t="s" r="J33">
+        <v>597</v>
       </c>
     </row>
     <row r="34">
       <c t="s" r="A34">
-        <v>593</v>
-      </c>
-      <c t="s" r="E34">
-        <v>407</v>
-      </c>
-      <c t="s" r="G34">
-        <v>594</v>
+        <v>598</v>
+      </c>
+      <c t="s" r="H34">
+        <v>420</v>
+      </c>
+      <c t="s" r="J34">
+        <v>599</v>
       </c>
     </row>
     <row r="35">
       <c t="s" r="A35">
-        <v>595</v>
-      </c>
-      <c t="s" r="E35">
-        <v>407</v>
-      </c>
-      <c t="s" r="G35">
-        <v>596</v>
+        <v>600</v>
+      </c>
+      <c t="s" r="H35">
+        <v>420</v>
+      </c>
+      <c t="s" r="J35">
+        <v>601</v>
       </c>
     </row>
     <row r="36">
       <c t="s" s="4" r="A36">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c s="4" r="B36"/>
       <c s="4" r="C36"/>
-      <c t="s" s="4" r="D36">
-        <v>488</v>
-      </c>
-      <c t="s" s="4" r="E36">
-        <v>407</v>
-      </c>
-      <c s="4" r="F36">
+      <c t="s" r="D36">
+        <v>503</v>
+      </c>
+      <c s="4" r="E36"/>
+      <c s="4" r="F36"/>
+      <c s="4" r="G36"/>
+      <c t="s" s="4" r="H36">
+        <v>420</v>
+      </c>
+      <c s="4" r="I36">
         <v>3</v>
       </c>
-      <c t="s" s="4" r="G36">
-        <v>598</v>
-      </c>
-      <c t="s" s="4" r="H36">
-        <v>599</v>
-      </c>
-      <c s="4" r="I36"/>
-      <c s="4" r="J36"/>
+      <c t="s" s="4" r="J36">
+        <v>603</v>
+      </c>
+      <c t="s" s="4" r="K36">
+        <v>604</v>
+      </c>
+      <c s="4" r="L36"/>
+      <c s="4" r="M36"/>
     </row>
     <row r="37">
       <c t="s" r="A37">
-        <v>600</v>
-      </c>
-      <c t="s" r="E37">
-        <v>412</v>
-      </c>
-      <c r="F37">
+        <v>605</v>
+      </c>
+      <c t="s" r="H37">
+        <v>425</v>
+      </c>
+      <c r="I37">
         <v>8</v>
       </c>
-      <c t="s" r="G37">
-        <v>601</v>
-      </c>
-      <c t="s" r="H37">
-        <v>602</v>
+      <c t="s" r="J37">
+        <v>606</v>
+      </c>
+      <c t="s" r="K37">
+        <v>607</v>
       </c>
     </row>
     <row r="38">
       <c t="s" r="A38">
-        <v>603</v>
-      </c>
-      <c t="s" r="E38">
-        <v>403</v>
-      </c>
-      <c t="s" r="G38">
-        <v>604</v>
+        <v>608</v>
+      </c>
+      <c t="s" r="H38">
+        <v>416</v>
+      </c>
+      <c t="s" r="J38">
+        <v>609</v>
       </c>
     </row>
     <row r="39">
       <c t="s" r="A39">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c t="s" r="D39">
-        <v>605</v>
-      </c>
-      <c t="s" r="E39">
-        <v>429</v>
-      </c>
-      <c r="F39">
+        <v>524</v>
+      </c>
+      <c t="s" r="H39">
+        <v>442</v>
+      </c>
+      <c r="I39">
         <v>4</v>
       </c>
-      <c t="s" r="G39">
-        <v>606</v>
-      </c>
-      <c t="s" r="H39">
-        <v>607</v>
-      </c>
       <c t="s" r="J39">
-        <v>608</v>
+        <v>610</v>
+      </c>
+      <c t="s" r="K39">
+        <v>611</v>
+      </c>
+      <c t="s" r="M39">
+        <v>612</v>
       </c>
     </row>
     <row r="41">
       <c t="s" r="A41">
-        <v>609</v>
-      </c>
-      <c t="s" r="D41">
-        <v>610</v>
-      </c>
-      <c t="s" r="E41">
-        <v>429</v>
-      </c>
-      <c r="F41">
+        <v>613</v>
+      </c>
+      <c t="s" s="4" r="D41">
+        <v>511</v>
+      </c>
+      <c t="s" s="4" r="E41">
+        <v>524</v>
+      </c>
+      <c t="s" r="H41">
+        <v>442</v>
+      </c>
+      <c r="I41">
         <v>4</v>
       </c>
-      <c t="s" r="G41">
-        <v>611</v>
-      </c>
-      <c t="s" r="H41">
-        <v>612</v>
-      </c>
       <c t="s" r="J41">
-        <v>569</v>
+        <v>614</v>
+      </c>
+      <c t="s" r="K41">
+        <v>615</v>
+      </c>
+      <c t="s" r="M41">
+        <v>578</v>
       </c>
     </row>
     <row r="42">
       <c t="s" r="A42">
-        <v>613</v>
-      </c>
-      <c t="s" r="E42">
-        <v>403</v>
-      </c>
-      <c r="F42">
+        <v>616</v>
+      </c>
+      <c t="s" r="H42">
+        <v>416</v>
+      </c>
+      <c r="I42">
         <v>9</v>
       </c>
-      <c t="s" r="G42">
-        <v>614</v>
-      </c>
       <c t="s" r="J42">
-        <v>615</v>
+        <v>617</v>
+      </c>
+      <c t="s" r="M42">
+        <v>618</v>
       </c>
     </row>
     <row r="43">
       <c t="s" s="4" r="A43">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c s="4" r="B43"/>
       <c s="4" r="C43"/>
       <c t="s" s="4" r="D43">
-        <v>521</v>
-      </c>
-      <c t="s" s="4" r="E43">
-        <v>429</v>
-      </c>
-      <c s="4" r="F43">
+        <v>515</v>
+      </c>
+      <c s="4" r="E43"/>
+      <c s="4" r="F43"/>
+      <c s="4" r="G43"/>
+      <c t="s" s="4" r="H43">
+        <v>442</v>
+      </c>
+      <c s="4" r="I43">
         <v>2</v>
       </c>
-      <c t="s" s="4" r="G43">
-        <v>617</v>
-      </c>
-      <c t="s" s="4" r="H43">
-        <v>618</v>
-      </c>
-      <c s="4" r="I43"/>
-      <c s="4" r="J43"/>
+      <c t="s" s="4" r="J43">
+        <v>620</v>
+      </c>
+      <c t="s" s="4" r="K43">
+        <v>621</v>
+      </c>
+      <c s="4" r="L43"/>
+      <c s="4" r="M43"/>
     </row>
     <row r="44">
       <c t="s" s="4" r="A44">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c t="s" s="4" r="B44">
         <v>22</v>
       </c>
       <c s="4" r="C44"/>
       <c t="s" s="4" r="D44">
-        <v>620</v>
+        <v>499</v>
       </c>
       <c t="s" s="4" r="E44">
-        <v>429</v>
-      </c>
-      <c s="4" r="F44">
+        <v>511</v>
+      </c>
+      <c s="4" r="F44"/>
+      <c s="4" r="G44"/>
+      <c t="s" s="4" r="H44">
+        <v>442</v>
+      </c>
+      <c s="4" r="I44">
         <v>2</v>
       </c>
-      <c t="s" s="4" r="G44">
-        <v>621</v>
-      </c>
-      <c t="s" s="4" r="H44">
-        <v>622</v>
-      </c>
-      <c s="4" r="I44"/>
       <c t="s" s="4" r="J44">
-        <v>569</v>
+        <v>623</v>
+      </c>
+      <c t="s" s="4" r="K44">
+        <v>624</v>
+      </c>
+      <c s="4" r="L44"/>
+      <c t="s" s="4" r="M44">
+        <v>578</v>
       </c>
     </row>
     <row r="45">
       <c t="s" r="A45">
-        <v>623</v>
-      </c>
-      <c t="s" r="E45">
-        <v>403</v>
-      </c>
-      <c r="F45">
+        <v>625</v>
+      </c>
+      <c t="s" r="H45">
+        <v>416</v>
+      </c>
+      <c r="I45">
         <v>9</v>
       </c>
-      <c t="s" r="G45">
-        <v>624</v>
+      <c t="s" r="J45">
+        <v>626</v>
       </c>
     </row>
     <row r="46">
       <c t="s" s="4" r="A46">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c s="4" r="B46"/>
       <c s="4" r="C46"/>
       <c t="s" s="4" r="D46">
-        <v>626</v>
+        <v>499</v>
       </c>
       <c t="s" s="4" r="E46">
-        <v>501</v>
-      </c>
-      <c s="4" r="F46">
+        <v>548</v>
+      </c>
+      <c t="s" s="4" r="F46">
+        <v>515</v>
+      </c>
+      <c t="s" s="4" r="G46">
+        <v>511</v>
+      </c>
+      <c t="s" s="4" r="H46">
+        <v>517</v>
+      </c>
+      <c s="4" r="I46">
         <v>3</v>
       </c>
-      <c t="s" s="4" r="G46">
-        <v>627</v>
-      </c>
-      <c t="s" s="4" r="H46">
+      <c t="s" s="4" r="J46">
         <v>628</v>
       </c>
-      <c s="4" r="I46"/>
-      <c s="4" r="J46"/>
+      <c t="s" s="4" r="K46">
+        <v>629</v>
+      </c>
+      <c s="4" r="L46"/>
+      <c s="4" r="M46"/>
     </row>
     <row r="47">
       <c t="s" r="A47">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c t="s" r="D47">
-        <v>492</v>
-      </c>
-      <c t="s" r="E47">
-        <v>429</v>
-      </c>
-      <c r="F47">
+        <v>507</v>
+      </c>
+      <c t="s" r="H47">
+        <v>442</v>
+      </c>
+      <c r="I47">
         <v>4</v>
       </c>
-      <c t="s" r="G47">
-        <v>630</v>
-      </c>
-      <c t="s" r="H47">
+      <c t="s" r="J47">
         <v>631</v>
       </c>
-      <c t="s" r="J47">
+      <c t="s" r="K47">
         <v>632</v>
+      </c>
+      <c t="s" r="M47">
+        <v>633</v>
       </c>
     </row>
     <row r="48">
       <c t="s" r="A48">
-        <v>463</v>
-      </c>
-      <c t="s" r="E48">
-        <v>403</v>
-      </c>
-      <c r="F48">
+        <v>476</v>
+      </c>
+      <c t="s" r="H48">
+        <v>416</v>
+      </c>
+      <c r="I48">
         <v>8</v>
       </c>
-      <c t="s" r="G48">
-        <v>633</v>
+      <c t="s" r="J48">
+        <v>634</v>
       </c>
     </row>
     <row r="49">
       <c t="s" r="A49">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c t="s" r="D49">
-        <v>635</v>
+        <v>548</v>
       </c>
       <c t="s" r="E49">
-        <v>429</v>
-      </c>
-      <c t="s" r="G49">
+        <v>503</v>
+      </c>
+      <c t="s" r="H49">
+        <v>442</v>
+      </c>
+      <c t="s" r="J49">
         <v>636</v>
       </c>
-      <c t="s" r="J49">
-        <v>569</v>
+      <c t="s" r="M49">
+        <v>578</v>
       </c>
     </row>
     <row r="50">
       <c t="s" r="A50">
         <v>637</v>
       </c>
-      <c t="s" r="D50">
+      <c t="s" s="4" r="D50">
+        <v>499</v>
+      </c>
+      <c t="s" s="4" r="E50">
+        <v>515</v>
+      </c>
+      <c t="s" r="H50">
+        <v>425</v>
+      </c>
+      <c r="I50">
+        <v>6</v>
+      </c>
+      <c t="s" r="J50">
         <v>638</v>
-      </c>
-      <c t="s" r="E50">
-        <v>412</v>
-      </c>
-      <c r="F50">
-        <v>6</v>
-      </c>
-      <c t="s" r="G50">
-        <v>639</v>
       </c>
     </row>
     <row r="51">
       <c t="s" r="A51">
+        <v>639</v>
+      </c>
+      <c t="s" r="H51">
+        <v>420</v>
+      </c>
+      <c t="s" r="J51">
         <v>640</v>
       </c>
-      <c t="s" r="E51">
-        <v>407</v>
-      </c>
-      <c t="s" r="G51">
+      <c t="s" r="K51">
         <v>641</v>
-      </c>
-      <c t="s" r="H51">
-        <v>642</v>
       </c>
     </row>
     <row r="52">
       <c t="s" r="A52">
+        <v>642</v>
+      </c>
+      <c t="s" r="H52">
+        <v>420</v>
+      </c>
+      <c t="s" r="J52">
         <v>643</v>
       </c>
-      <c t="s" r="E52">
-        <v>407</v>
-      </c>
-      <c t="s" r="G52">
+      <c t="s" r="K52">
         <v>644</v>
-      </c>
-      <c t="s" r="H52">
-        <v>645</v>
       </c>
     </row>
     <row r="53">
       <c t="s" r="A53">
+        <v>645</v>
+      </c>
+      <c t="s" r="H53">
+        <v>416</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c t="s" r="J53">
         <v>646</v>
       </c>
-      <c t="s" r="E53">
-        <v>403</v>
-      </c>
-      <c r="F53">
-        <v>3</v>
-      </c>
-      <c t="s" r="G53">
+      <c t="s" r="K53">
         <v>647</v>
-      </c>
-      <c t="s" r="H53">
-        <v>648</v>
       </c>
     </row>
     <row r="54">
       <c t="s" s="4" r="A54">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c s="4" r="B54"/>
       <c s="4" r="C54"/>
       <c t="s" s="4" r="D54">
-        <v>650</v>
+        <v>499</v>
       </c>
       <c t="s" s="4" r="E54">
-        <v>412</v>
-      </c>
-      <c s="4" r="F54">
+        <v>548</v>
+      </c>
+      <c s="4" r="F54"/>
+      <c s="4" r="G54"/>
+      <c t="s" s="4" r="H54">
+        <v>425</v>
+      </c>
+      <c s="4" r="I54">
         <v>2</v>
       </c>
-      <c t="s" s="4" r="G54">
-        <v>651</v>
-      </c>
-      <c s="4" r="H54"/>
-      <c s="4" r="I54"/>
-      <c s="4" r="J54"/>
+      <c t="s" s="4" r="J54">
+        <v>649</v>
+      </c>
+      <c s="4" r="K54"/>
+      <c s="4" r="L54"/>
+      <c s="4" r="M54"/>
     </row>
     <row r="55">
       <c t="s" r="A55">
+        <v>650</v>
+      </c>
+      <c t="s" r="H55">
+        <v>416</v>
+      </c>
+      <c r="I55">
+        <v>7</v>
+      </c>
+      <c t="s" r="J55">
+        <v>651</v>
+      </c>
+      <c t="s" r="M55">
         <v>652</v>
-      </c>
-      <c t="s" r="E55">
-        <v>403</v>
-      </c>
-      <c r="F55">
-        <v>7</v>
-      </c>
-      <c t="s" r="G55">
-        <v>653</v>
-      </c>
-      <c t="s" r="J55">
-        <v>654</v>
       </c>
     </row>
     <row r="56">
       <c t="s" r="A56">
+        <v>653</v>
+      </c>
+      <c t="s" r="D56">
+        <v>516</v>
+      </c>
+      <c t="s" r="E56">
+        <v>524</v>
+      </c>
+      <c t="s" r="H56">
+        <v>425</v>
+      </c>
+      <c r="I56">
+        <v>6</v>
+      </c>
+      <c t="s" r="J56">
+        <v>654</v>
+      </c>
+      <c t="s" r="M56">
         <v>655</v>
-      </c>
-      <c t="s" r="D56">
-        <v>656</v>
-      </c>
-      <c t="s" r="E56">
-        <v>412</v>
-      </c>
-      <c r="F56">
-        <v>6</v>
-      </c>
-      <c t="s" r="G56">
-        <v>657</v>
-      </c>
-      <c t="s" r="J56">
-        <v>658</v>
       </c>
     </row>
     <row r="57">
       <c t="s" r="A57">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c t="s" r="D57">
-        <v>532</v>
-      </c>
-      <c t="s" r="E57">
-        <v>412</v>
-      </c>
-      <c r="F57">
+        <v>545</v>
+      </c>
+      <c t="s" r="H57">
+        <v>425</v>
+      </c>
+      <c r="I57">
         <v>9</v>
       </c>
-      <c t="s" r="G57">
-        <v>660</v>
+      <c t="s" r="J57">
+        <v>657</v>
       </c>
     </row>
     <row r="58">
       <c t="s" s="4" r="A58">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c s="4" r="B58"/>
       <c s="4" r="C58"/>
-      <c t="s" s="4" r="D58">
-        <v>605</v>
-      </c>
-      <c t="s" s="4" r="E58">
-        <v>407</v>
-      </c>
-      <c s="4" r="F58">
+      <c t="s" r="D58">
+        <v>524</v>
+      </c>
+      <c s="4" r="E58"/>
+      <c s="4" r="F58"/>
+      <c s="4" r="G58"/>
+      <c t="s" s="4" r="H58">
+        <v>420</v>
+      </c>
+      <c s="4" r="I58">
         <v>6</v>
       </c>
-      <c t="s" s="4" r="G58">
-        <v>662</v>
-      </c>
-      <c t="s" s="4" r="H58">
-        <v>663</v>
-      </c>
-      <c t="s" s="4" r="I58">
-        <v>664</v>
-      </c>
-      <c s="4" r="J58"/>
+      <c t="s" s="4" r="J58">
+        <v>659</v>
+      </c>
+      <c t="s" s="4" r="K58">
+        <v>660</v>
+      </c>
+      <c t="s" s="4" r="L58">
+        <v>661</v>
+      </c>
+      <c s="4" r="M58"/>
     </row>
     <row r="59">
       <c t="s" r="A59">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c t="s" r="D59">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c t="s" r="E59">
-        <v>412</v>
-      </c>
-      <c r="F59">
+        <v>545</v>
+      </c>
+      <c t="s" r="H59">
+        <v>425</v>
+      </c>
+      <c r="I59">
         <v>8</v>
       </c>
-      <c t="s" r="G59">
-        <v>667</v>
-      </c>
       <c t="s" r="J59">
-        <v>668</v>
+        <v>663</v>
+      </c>
+      <c t="s" r="M59">
+        <v>664</v>
       </c>
     </row>
     <row r="60">
       <c t="s" r="A60">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c t="s" r="D60">
-        <v>670</v>
+        <v>545</v>
       </c>
       <c t="s" r="E60">
-        <v>412</v>
-      </c>
-      <c r="F60">
+        <v>574</v>
+      </c>
+      <c t="s" r="H60">
+        <v>425</v>
+      </c>
+      <c r="I60">
         <v>10</v>
       </c>
-      <c t="s" r="G60">
-        <v>671</v>
+      <c t="s" r="J60">
+        <v>666</v>
       </c>
     </row>
     <row r="61">
       <c t="s" r="A61">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c t="s" r="D61">
-        <v>488</v>
-      </c>
-      <c t="s" r="E61">
-        <v>429</v>
-      </c>
-      <c r="F61">
+        <v>503</v>
+      </c>
+      <c t="s" r="H61">
+        <v>442</v>
+      </c>
+      <c r="I61">
         <v>3</v>
       </c>
-      <c t="s" r="H61">
-        <v>673</v>
-      </c>
-      <c t="s" r="J61">
-        <v>674</v>
+      <c t="s" r="K61">
+        <v>668</v>
+      </c>
+      <c t="s" r="M61">
+        <v>669</v>
       </c>
     </row>
     <row r="62">
       <c t="s" s="4" r="A62">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c s="4" r="B62"/>
       <c s="4" r="C62"/>
       <c t="s" s="4" r="D62">
-        <v>676</v>
-      </c>
-      <c t="s" s="4" r="E62">
-        <v>429</v>
-      </c>
-      <c s="4" r="F62">
+        <v>511</v>
+      </c>
+      <c s="4" r="E62"/>
+      <c s="4" r="F62"/>
+      <c s="4" r="G62"/>
+      <c t="s" s="4" r="H62">
+        <v>442</v>
+      </c>
+      <c s="4" r="I62">
         <v>1</v>
       </c>
-      <c t="s" s="4" r="G62">
-        <v>677</v>
-      </c>
-      <c t="s" s="4" r="H62">
-        <v>678</v>
-      </c>
-      <c s="4" r="I62"/>
       <c t="s" s="4" r="J62">
-        <v>608</v>
+        <v>671</v>
+      </c>
+      <c t="s" s="4" r="K62">
+        <v>672</v>
+      </c>
+      <c s="4" r="L62"/>
+      <c t="s" s="4" r="M62">
+        <v>612</v>
       </c>
     </row>
     <row r="63">
       <c t="s" r="A63">
-        <v>679</v>
-      </c>
-      <c t="s" r="E63">
-        <v>412</v>
-      </c>
-      <c r="F63">
+        <v>673</v>
+      </c>
+      <c t="s" r="H63">
+        <v>425</v>
+      </c>
+      <c r="I63">
         <v>5</v>
       </c>
-      <c t="s" r="G63">
-        <v>680</v>
+      <c t="s" r="J63">
+        <v>674</v>
       </c>
     </row>
     <row r="64">
       <c t="s" r="A64">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c t="s" r="D64">
-        <v>488</v>
-      </c>
-      <c t="s" r="E64">
-        <v>429</v>
-      </c>
-      <c t="s" r="F64">
-        <v>522</v>
-      </c>
-      <c t="s" r="G64">
-        <v>682</v>
+        <v>503</v>
       </c>
       <c t="s" r="H64">
-        <v>683</v>
+        <v>442</v>
       </c>
       <c t="s" r="I64">
-        <v>684</v>
+        <v>536</v>
+      </c>
+      <c t="s" r="J64">
+        <v>676</v>
+      </c>
+      <c t="s" r="K64">
+        <v>677</v>
+      </c>
+      <c t="s" r="L64">
+        <v>678</v>
       </c>
     </row>
     <row r="65">
       <c t="s" r="A65">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c t="s" r="D65">
-        <v>588</v>
-      </c>
-      <c t="s" r="E65">
-        <v>412</v>
-      </c>
-      <c r="F65">
+        <v>574</v>
+      </c>
+      <c t="s" r="H65">
+        <v>425</v>
+      </c>
+      <c r="I65">
         <v>10</v>
       </c>
-      <c t="s" r="G65">
-        <v>686</v>
+      <c t="s" r="J65">
+        <v>680</v>
       </c>
     </row>
     <row r="66">
       <c t="s" s="4" r="A66">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c s="4" r="B66"/>
       <c s="4" r="C66"/>
       <c t="s" s="4" r="D66">
-        <v>688</v>
+        <v>548</v>
       </c>
       <c t="s" s="4" r="E66">
-        <v>412</v>
-      </c>
-      <c s="4" r="F66">
+        <v>515</v>
+      </c>
+      <c s="4" r="F66"/>
+      <c s="4" r="G66"/>
+      <c t="s" s="4" r="H66">
+        <v>425</v>
+      </c>
+      <c s="4" r="I66">
         <v>2</v>
       </c>
-      <c t="s" s="4" r="G66">
-        <v>689</v>
-      </c>
-      <c s="4" r="H66"/>
-      <c s="4" r="I66"/>
-      <c s="4" r="J66"/>
+      <c t="s" s="4" r="J66">
+        <v>682</v>
+      </c>
+      <c s="4" r="K66"/>
+      <c s="4" r="L66"/>
+      <c s="4" r="M66"/>
     </row>
     <row r="67">
       <c t="s" s="4" r="A67">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c s="4" r="B67"/>
       <c s="4" r="C67"/>
       <c t="s" s="4" r="D67">
-        <v>691</v>
+        <v>515</v>
       </c>
       <c t="s" s="4" r="E67">
-        <v>412</v>
-      </c>
-      <c s="4" r="F67">
+        <v>511</v>
+      </c>
+      <c s="4" r="F67"/>
+      <c s="4" r="G67"/>
+      <c t="s" s="4" r="H67">
+        <v>425</v>
+      </c>
+      <c s="4" r="I67">
         <v>2</v>
       </c>
-      <c t="s" s="4" r="G67">
-        <v>692</v>
-      </c>
-      <c s="4" r="H67"/>
-      <c s="4" r="I67"/>
-      <c s="4" r="J67"/>
+      <c t="s" s="4" r="J67">
+        <v>684</v>
+      </c>
+      <c s="4" r="K67"/>
+      <c s="4" r="L67"/>
+      <c s="4" r="M67"/>
     </row>
     <row r="68">
       <c t="s" r="A68">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c t="s" r="D68">
-        <v>512</v>
-      </c>
-      <c t="s" r="E68">
-        <v>429</v>
-      </c>
-      <c r="F68">
+        <v>516</v>
+      </c>
+      <c t="s" r="H68">
+        <v>442</v>
+      </c>
+      <c r="I68">
         <v>3</v>
       </c>
-      <c t="s" r="G68">
-        <v>694</v>
-      </c>
-      <c t="s" r="H68">
-        <v>695</v>
-      </c>
       <c t="s" r="J68">
-        <v>696</v>
+        <v>686</v>
+      </c>
+      <c t="s" r="K68">
+        <v>687</v>
+      </c>
+      <c t="s" r="M68">
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -10365,27 +10864,27 @@
         <v>13</v>
       </c>
       <c t="s" s="8" r="D1">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c t="s" s="8" r="E1">
-        <v>697</v>
+        <v>409</v>
       </c>
       <c t="s" s="8" r="F1">
-        <v>698</v>
+        <v>689</v>
       </c>
     </row>
     <row r="2">
       <c t="s" r="A2">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c t="s" r="B2">
         <v>22</v>
       </c>
       <c t="s" r="D2">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c t="s" r="E2">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -10393,16 +10892,16 @@
     </row>
     <row r="3">
       <c t="s" r="A3">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c t="s" r="B3">
         <v>22</v>
       </c>
       <c t="s" r="D3">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c t="s" r="E3">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -10410,36 +10909,36 @@
     </row>
     <row r="4">
       <c t="s" r="A4">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c t="s" r="B4">
         <v>22</v>
       </c>
       <c t="s" r="D4">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c t="s" r="E4">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c t="s" r="G4">
-        <v>708</v>
+        <v>699</v>
       </c>
     </row>
     <row r="5">
       <c t="s" r="A5">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c t="s" r="B5">
         <v>22</v>
       </c>
       <c t="s" r="D5">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c t="s" r="E5">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -10447,13 +10946,13 @@
     </row>
     <row r="6">
       <c t="s" r="A6">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c t="s" r="B6">
         <v>22</v>
       </c>
       <c t="s" r="D6">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -10461,13 +10960,13 @@
     </row>
     <row r="7">
       <c t="s" r="A7">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c t="s" r="B7">
         <v>22</v>
       </c>
       <c t="s" r="D7">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -10475,13 +10974,13 @@
     </row>
     <row r="8">
       <c t="s" r="A8">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c t="s" r="B8">
         <v>22</v>
       </c>
       <c t="s" r="D8">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -10540,7 +11039,7 @@
     </row>
     <row r="2">
       <c t="s" r="A2">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -10552,15 +11051,15 @@
         <v>1</v>
       </c>
       <c t="s" r="H2">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c t="s" r="K2">
-        <v>720</v>
+        <v>711</v>
       </c>
     </row>
     <row r="3">
       <c t="s" r="A3">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -10572,15 +11071,15 @@
         <v>1</v>
       </c>
       <c t="s" r="H3">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c t="s" r="I3">
-        <v>723</v>
+        <v>714</v>
       </c>
     </row>
     <row r="4">
       <c t="s" r="A4">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -10592,12 +11091,12 @@
         <v>1</v>
       </c>
       <c t="s" r="H4">
-        <v>725</v>
+        <v>716</v>
       </c>
     </row>
     <row r="5">
       <c t="s" r="A5">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -10609,12 +11108,12 @@
         <v>1</v>
       </c>
       <c t="s" r="H5">
-        <v>727</v>
+        <v>718</v>
       </c>
     </row>
     <row r="6">
       <c t="s" r="A6">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -10623,72 +11122,72 @@
         <v>50</v>
       </c>
       <c t="s" r="H6">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c t="s" r="I6">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c t="s" r="J6">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c t="s" r="K6">
-        <v>732</v>
+        <v>723</v>
       </c>
     </row>
     <row r="7">
       <c t="s" r="A7">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="E7">
         <v>30</v>
       </c>
       <c t="s" r="H7">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c t="s" r="I7">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c t="s" r="K7">
-        <v>735</v>
+        <v>726</v>
       </c>
     </row>
     <row r="8">
       <c t="s" r="A8">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E8">
         <v>20</v>
       </c>
       <c t="s" r="H8">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c t="s" r="I8">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c t="s" r="K8">
-        <v>739</v>
+        <v>730</v>
       </c>
     </row>
     <row r="9">
       <c t="s" r="A9">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="E9">
         <v>10</v>
       </c>
       <c t="s" r="H9">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c t="s" r="I9">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c t="s" r="K9">
-        <v>743</v>
+        <v>734</v>
       </c>
     </row>
     <row r="10">
       <c t="s" r="A10">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c t="s" r="B10">
         <v>22</v>
@@ -10703,167 +11202,167 @@
         <v>10</v>
       </c>
       <c t="s" r="H10">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c t="s" r="I10">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c t="s" r="K10">
-        <v>747</v>
+        <v>738</v>
       </c>
     </row>
     <row r="11">
       <c t="s" r="A11">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="E11">
         <v>25</v>
       </c>
       <c t="s" r="H11">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c t="s" r="I11">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c t="s" r="J11">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c t="s" r="K11">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c t="s" r="L11">
-        <v>751</v>
+        <v>742</v>
       </c>
     </row>
     <row r="12">
       <c t="s" r="A12">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="E12">
         <v>20</v>
       </c>
       <c t="s" r="H12">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c t="s" r="I12">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c t="s" r="J12">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c t="s" r="K12">
-        <v>756</v>
+        <v>747</v>
       </c>
     </row>
     <row r="13">
       <c t="s" r="A13">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="E13">
         <v>15</v>
       </c>
       <c t="s" r="H13">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c t="s" r="I13">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c t="s" r="J13">
-        <v>760</v>
+        <v>751</v>
       </c>
     </row>
     <row r="14">
       <c t="s" r="A14">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="E14">
         <v>10</v>
       </c>
       <c t="s" r="H14">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c t="s" r="I14">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c t="s" r="J14">
-        <v>764</v>
+        <v>755</v>
       </c>
     </row>
     <row r="15">
       <c t="s" r="A15">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c t="s" r="B15">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c t="s" r="H15">
-        <v>767</v>
+        <v>758</v>
       </c>
     </row>
     <row r="16">
       <c t="s" r="A16">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="E16">
         <v>35</v>
       </c>
       <c t="s" r="H16">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c t="s" r="I16">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c t="s" r="J16">
-        <v>771</v>
+        <v>762</v>
       </c>
     </row>
     <row r="17">
       <c t="s" r="A17">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="E17">
         <v>30</v>
       </c>
       <c t="s" r="H17">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c t="s" r="I17">
-        <v>774</v>
+        <v>765</v>
       </c>
     </row>
     <row r="18">
       <c t="s" r="A18">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c t="s" r="D18">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="E18">
         <v>25</v>
       </c>
       <c t="s" r="H18">
-        <v>777</v>
+        <v>768</v>
       </c>
     </row>
     <row r="19">
       <c t="s" r="A19">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c t="s" r="H19">
-        <v>779</v>
+        <v>770</v>
       </c>
     </row>
     <row r="20">
       <c t="s" r="A20">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c t="s" r="H20">
-        <v>781</v>
+        <v>772</v>
       </c>
     </row>
     <row r="21">
       <c t="s" r="A21">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="E21">
         <v>5</v>
@@ -10871,38 +11370,38 @@
     </row>
     <row r="22">
       <c t="s" r="A22">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="E22">
         <v>10</v>
       </c>
       <c t="s" r="H22">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c t="s" r="I22">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c t="s" r="J22">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c t="s" r="K22">
-        <v>787</v>
+        <v>778</v>
       </c>
     </row>
     <row r="23">
       <c t="s" r="A23">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="E23">
         <v>10</v>
       </c>
       <c t="s" r="H23">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24">
       <c t="s" r="A24">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -10914,15 +11413,15 @@
         <v>1</v>
       </c>
       <c t="s" r="H24">
-        <v>790</v>
+        <v>781</v>
       </c>
     </row>
     <row r="25">
       <c t="s" r="A25">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c t="s" r="H25">
-        <v>792</v>
+        <v>783</v>
       </c>
     </row>
   </sheetData>
